--- a/data/men/M_2020_02_Dukla_Olomouc.xlsx
+++ b/data/men/M_2020_02_Dukla_Olomouc.xlsx
@@ -1,33 +1,35 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25726"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25831"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jzelenka\Documents\python_j\fencing\data\men\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{170376A0-D80B-4661-BACD-03716E0646D2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{543FE68B-5918-4236-9E3C-97A70D3DBC28}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" tabRatio="622" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="1848" yWindow="-16284" windowWidth="25488" windowHeight="10380" tabRatio="622" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="initiation" sheetId="1" r:id="rId1"/>
-    <sheet name="first_round" sheetId="2" r:id="rId2"/>
-    <sheet name="total_rank" sheetId="3" r:id="rId3"/>
-    <sheet name="pools" sheetId="4" r:id="rId4"/>
-    <sheet name="eliminations" sheetId="5" r:id="rId5"/>
+    <sheet name="total" sheetId="6" r:id="rId1"/>
+    <sheet name="initiation" sheetId="1" r:id="rId2"/>
+    <sheet name="first_round" sheetId="2" r:id="rId3"/>
+    <sheet name="total_rank" sheetId="3" r:id="rId4"/>
+    <sheet name="pools" sheetId="4" r:id="rId5"/>
+    <sheet name="eliminations" sheetId="5" r:id="rId6"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="4" hidden="1">eliminations!$A$1:$K$1</definedName>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">first_round!$A$1:$M$1</definedName>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">initiation!$A$1:$F$1</definedName>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="3" hidden="1">pools!$A$1:$K$1</definedName>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="2" hidden="1">total_rank!$A$1:$H$1</definedName>
-    <definedName name="ExternalData_1" localSheetId="1" hidden="1">first_round!#REF!</definedName>
-    <definedName name="ExternalData_1" localSheetId="0" hidden="1">initiation!#REF!</definedName>
-    <definedName name="ExternalData_1" localSheetId="2" hidden="1">total_rank!#REF!</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="5" hidden="1">eliminations!$A$1:$K$1</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="2" hidden="1">first_round!$A$1:$M$1</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">initiation!$A$1:$F$1</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="4" hidden="1">pools!$A$1:$K$1</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">total!$A$1:$Q$1</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="3" hidden="1">total_rank!$A$1:$H$1</definedName>
+    <definedName name="ExternalData_1" localSheetId="2" hidden="1">first_round!#REF!</definedName>
+    <definedName name="ExternalData_1" localSheetId="1" hidden="1">initiation!#REF!</definedName>
+    <definedName name="ExternalData_1" localSheetId="3" hidden="1">total_rank!#REF!</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -94,7 +96,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4814" uniqueCount="120">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5205" uniqueCount="121">
   <si>
     <t>Name</t>
   </si>
@@ -455,13 +457,16 @@
   <si>
     <t>Eliminace_64</t>
   </si>
+  <si>
+    <t>Percentil</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="1">
-    <numFmt numFmtId="165" formatCode="0.000"/>
+    <numFmt numFmtId="164" formatCode="0.000"/>
   </numFmts>
   <fonts count="3" x14ac:knownFonts="1">
     <font>
@@ -534,13 +539,13 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="22">
+  <cellXfs count="24">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="14" fontId="1" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="165" fontId="1" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="165" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="164" fontId="1" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="164" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="14" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
@@ -571,6 +576,8 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -850,11 +857,3384 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{11710554-39A1-47AD-8635-0E796AE8035B}">
+  <dimension ref="A1:Q64"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="A25" workbookViewId="0">
+      <selection activeCell="E54" sqref="E54:E56"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="12.33203125" customWidth="1"/>
+    <col min="2" max="2" width="14.5546875" customWidth="1"/>
+    <col min="4" max="4" width="22.44140625" customWidth="1"/>
+    <col min="5" max="6" width="10.33203125" customWidth="1"/>
+    <col min="7" max="7" width="8.5546875" customWidth="1"/>
+    <col min="8" max="8" width="11.5546875" style="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A1" s="2" t="s">
+        <v>98</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>99</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>100</v>
+      </c>
+      <c r="D1" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="E1" s="2" t="s">
+        <v>87</v>
+      </c>
+      <c r="F1" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="G1" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="H1" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="I1" s="2" t="s">
+        <v>88</v>
+      </c>
+      <c r="J1" s="4" t="s">
+        <v>89</v>
+      </c>
+      <c r="K1" s="2" t="s">
+        <v>90</v>
+      </c>
+      <c r="L1" s="2" t="s">
+        <v>91</v>
+      </c>
+      <c r="M1" s="2" t="s">
+        <v>92</v>
+      </c>
+      <c r="N1" s="2" t="s">
+        <v>93</v>
+      </c>
+      <c r="O1" s="2" t="s">
+        <v>97</v>
+      </c>
+      <c r="P1" s="2" t="s">
+        <v>103</v>
+      </c>
+      <c r="Q1" s="2" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="2" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A2" s="1">
+        <v>43883</v>
+      </c>
+      <c r="B2" t="s">
+        <v>101</v>
+      </c>
+      <c r="C2" t="s">
+        <v>102</v>
+      </c>
+      <c r="D2" t="s">
+        <v>4</v>
+      </c>
+      <c r="E2" t="s">
+        <v>5</v>
+      </c>
+      <c r="F2" t="s">
+        <v>6</v>
+      </c>
+      <c r="G2">
+        <v>36</v>
+      </c>
+      <c r="H2" s="1">
+        <v>28313</v>
+      </c>
+      <c r="I2">
+        <v>5</v>
+      </c>
+      <c r="J2">
+        <v>0.71</v>
+      </c>
+      <c r="K2">
+        <v>30</v>
+      </c>
+      <c r="L2">
+        <v>25</v>
+      </c>
+      <c r="M2">
+        <v>5</v>
+      </c>
+      <c r="N2" t="s">
+        <v>94</v>
+      </c>
+      <c r="O2">
+        <v>16</v>
+      </c>
+      <c r="P2">
+        <v>19</v>
+      </c>
+      <c r="Q2" s="22">
+        <f>P2/MAX($P$2:$P$62)</f>
+        <v>0.31666666666666665</v>
+      </c>
+    </row>
+    <row r="3" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A3" s="1">
+        <v>43883</v>
+      </c>
+      <c r="B3" t="s">
+        <v>101</v>
+      </c>
+      <c r="C3" t="s">
+        <v>102</v>
+      </c>
+      <c r="D3" t="s">
+        <v>7</v>
+      </c>
+      <c r="E3" t="s">
+        <v>8</v>
+      </c>
+      <c r="F3" t="s">
+        <v>6</v>
+      </c>
+      <c r="G3">
+        <v>10</v>
+      </c>
+      <c r="H3" s="1">
+        <v>36099</v>
+      </c>
+      <c r="I3">
+        <v>5</v>
+      </c>
+      <c r="J3">
+        <v>0.71</v>
+      </c>
+      <c r="K3">
+        <v>28</v>
+      </c>
+      <c r="L3">
+        <v>23</v>
+      </c>
+      <c r="M3">
+        <v>5</v>
+      </c>
+      <c r="N3" t="s">
+        <v>94</v>
+      </c>
+      <c r="O3">
+        <v>17</v>
+      </c>
+      <c r="P3">
+        <v>14</v>
+      </c>
+      <c r="Q3" s="22">
+        <f t="shared" ref="Q3:Q62" si="0">P3/MAX($P$2:$P$62)</f>
+        <v>0.23333333333333334</v>
+      </c>
+    </row>
+    <row r="4" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A4" s="1">
+        <v>43883</v>
+      </c>
+      <c r="B4" t="s">
+        <v>101</v>
+      </c>
+      <c r="C4" t="s">
+        <v>102</v>
+      </c>
+      <c r="D4" t="s">
+        <v>9</v>
+      </c>
+      <c r="E4" t="s">
+        <v>10</v>
+      </c>
+      <c r="F4" t="s">
+        <v>6</v>
+      </c>
+      <c r="G4">
+        <v>98</v>
+      </c>
+      <c r="H4" s="1">
+        <v>37109</v>
+      </c>
+      <c r="I4">
+        <v>1</v>
+      </c>
+      <c r="J4">
+        <v>0.17</v>
+      </c>
+      <c r="K4">
+        <v>18</v>
+      </c>
+      <c r="L4">
+        <v>28</v>
+      </c>
+      <c r="M4">
+        <v>-10</v>
+      </c>
+      <c r="N4" t="s">
+        <v>95</v>
+      </c>
+      <c r="O4">
+        <v>50</v>
+      </c>
+      <c r="P4">
+        <v>50</v>
+      </c>
+      <c r="Q4" s="22">
+        <f t="shared" si="0"/>
+        <v>0.83333333333333337</v>
+      </c>
+    </row>
+    <row r="5" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A5" s="1">
+        <v>43883</v>
+      </c>
+      <c r="B5" t="s">
+        <v>101</v>
+      </c>
+      <c r="C5" t="s">
+        <v>102</v>
+      </c>
+      <c r="D5" t="s">
+        <v>11</v>
+      </c>
+      <c r="E5" t="s">
+        <v>12</v>
+      </c>
+      <c r="F5" t="s">
+        <v>6</v>
+      </c>
+      <c r="G5">
+        <v>2</v>
+      </c>
+      <c r="H5" s="1">
+        <v>29969</v>
+      </c>
+      <c r="I5">
+        <v>6</v>
+      </c>
+      <c r="J5">
+        <v>1</v>
+      </c>
+      <c r="K5">
+        <v>30</v>
+      </c>
+      <c r="L5">
+        <v>15</v>
+      </c>
+      <c r="M5">
+        <v>15</v>
+      </c>
+      <c r="N5" t="s">
+        <v>94</v>
+      </c>
+      <c r="O5">
+        <v>3</v>
+      </c>
+      <c r="P5">
+        <v>2</v>
+      </c>
+      <c r="Q5" s="22">
+        <f t="shared" si="0"/>
+        <v>3.3333333333333333E-2</v>
+      </c>
+    </row>
+    <row r="6" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A6" s="1">
+        <v>43883</v>
+      </c>
+      <c r="B6" t="s">
+        <v>101</v>
+      </c>
+      <c r="C6" t="s">
+        <v>102</v>
+      </c>
+      <c r="D6" t="s">
+        <v>13</v>
+      </c>
+      <c r="E6" t="s">
+        <v>14</v>
+      </c>
+      <c r="F6" t="s">
+        <v>6</v>
+      </c>
+      <c r="G6">
+        <v>38</v>
+      </c>
+      <c r="H6" s="1">
+        <v>35185</v>
+      </c>
+      <c r="I6">
+        <v>3</v>
+      </c>
+      <c r="J6">
+        <v>0.5</v>
+      </c>
+      <c r="K6">
+        <v>26</v>
+      </c>
+      <c r="L6">
+        <v>21</v>
+      </c>
+      <c r="M6">
+        <v>5</v>
+      </c>
+      <c r="N6" t="s">
+        <v>94</v>
+      </c>
+      <c r="O6">
+        <v>27</v>
+      </c>
+      <c r="P6">
+        <v>24</v>
+      </c>
+      <c r="Q6" s="22">
+        <f t="shared" si="0"/>
+        <v>0.4</v>
+      </c>
+    </row>
+    <row r="7" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A7" s="1">
+        <v>43883</v>
+      </c>
+      <c r="B7" t="s">
+        <v>101</v>
+      </c>
+      <c r="C7" t="s">
+        <v>102</v>
+      </c>
+      <c r="D7" t="s">
+        <v>15</v>
+      </c>
+      <c r="E7" t="s">
+        <v>16</v>
+      </c>
+      <c r="F7" t="s">
+        <v>6</v>
+      </c>
+      <c r="G7">
+        <v>22</v>
+      </c>
+      <c r="H7" s="1">
+        <v>33038</v>
+      </c>
+      <c r="I7">
+        <v>3</v>
+      </c>
+      <c r="J7">
+        <v>0.5</v>
+      </c>
+      <c r="K7">
+        <v>26</v>
+      </c>
+      <c r="L7">
+        <v>21</v>
+      </c>
+      <c r="M7">
+        <v>5</v>
+      </c>
+      <c r="N7" t="s">
+        <v>94</v>
+      </c>
+      <c r="O7">
+        <v>27</v>
+      </c>
+      <c r="P7">
+        <v>37</v>
+      </c>
+      <c r="Q7" s="22">
+        <f t="shared" si="0"/>
+        <v>0.6166666666666667</v>
+      </c>
+    </row>
+    <row r="8" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A8" s="1">
+        <v>43883</v>
+      </c>
+      <c r="B8" t="s">
+        <v>101</v>
+      </c>
+      <c r="C8" t="s">
+        <v>102</v>
+      </c>
+      <c r="D8" t="s">
+        <v>17</v>
+      </c>
+      <c r="E8" t="s">
+        <v>18</v>
+      </c>
+      <c r="F8" t="s">
+        <v>6</v>
+      </c>
+      <c r="G8">
+        <v>89</v>
+      </c>
+      <c r="H8" s="1">
+        <v>30117</v>
+      </c>
+      <c r="I8">
+        <v>1</v>
+      </c>
+      <c r="J8">
+        <v>0.17</v>
+      </c>
+      <c r="K8">
+        <v>19</v>
+      </c>
+      <c r="L8">
+        <v>29</v>
+      </c>
+      <c r="M8">
+        <v>-10</v>
+      </c>
+      <c r="N8" t="s">
+        <v>94</v>
+      </c>
+      <c r="O8">
+        <v>49</v>
+      </c>
+      <c r="P8">
+        <v>49</v>
+      </c>
+      <c r="Q8" s="22">
+        <f t="shared" si="0"/>
+        <v>0.81666666666666665</v>
+      </c>
+    </row>
+    <row r="9" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A9" s="1">
+        <v>43883</v>
+      </c>
+      <c r="B9" t="s">
+        <v>101</v>
+      </c>
+      <c r="C9" t="s">
+        <v>102</v>
+      </c>
+      <c r="D9" t="s">
+        <v>19</v>
+      </c>
+      <c r="E9" t="s">
+        <v>12</v>
+      </c>
+      <c r="F9" t="s">
+        <v>6</v>
+      </c>
+      <c r="G9">
+        <v>3</v>
+      </c>
+      <c r="H9" s="1">
+        <v>30573</v>
+      </c>
+      <c r="I9">
+        <v>5</v>
+      </c>
+      <c r="J9">
+        <v>0.83</v>
+      </c>
+      <c r="K9">
+        <v>29</v>
+      </c>
+      <c r="L9">
+        <v>17</v>
+      </c>
+      <c r="M9">
+        <v>12</v>
+      </c>
+      <c r="N9" t="s">
+        <v>94</v>
+      </c>
+      <c r="O9">
+        <v>11</v>
+      </c>
+      <c r="P9">
+        <v>8</v>
+      </c>
+      <c r="Q9" s="22">
+        <f t="shared" si="0"/>
+        <v>0.13333333333333333</v>
+      </c>
+    </row>
+    <row r="10" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A10" s="1">
+        <v>43883</v>
+      </c>
+      <c r="B10" t="s">
+        <v>101</v>
+      </c>
+      <c r="C10" t="s">
+        <v>102</v>
+      </c>
+      <c r="D10" t="s">
+        <v>20</v>
+      </c>
+      <c r="E10" t="s">
+        <v>21</v>
+      </c>
+      <c r="F10" t="s">
+        <v>6</v>
+      </c>
+      <c r="G10">
+        <v>7</v>
+      </c>
+      <c r="H10" s="1">
+        <v>33595</v>
+      </c>
+      <c r="I10">
+        <v>6</v>
+      </c>
+      <c r="J10">
+        <v>0.86</v>
+      </c>
+      <c r="K10">
+        <v>33</v>
+      </c>
+      <c r="L10">
+        <v>12</v>
+      </c>
+      <c r="M10">
+        <v>21</v>
+      </c>
+      <c r="N10" t="s">
+        <v>94</v>
+      </c>
+      <c r="O10">
+        <v>4</v>
+      </c>
+      <c r="P10">
+        <v>3</v>
+      </c>
+      <c r="Q10" s="22">
+        <f t="shared" si="0"/>
+        <v>0.05</v>
+      </c>
+    </row>
+    <row r="11" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A11" s="1">
+        <v>43883</v>
+      </c>
+      <c r="B11" t="s">
+        <v>101</v>
+      </c>
+      <c r="C11" t="s">
+        <v>102</v>
+      </c>
+      <c r="D11" t="s">
+        <v>22</v>
+      </c>
+      <c r="E11" t="s">
+        <v>12</v>
+      </c>
+      <c r="F11" t="s">
+        <v>6</v>
+      </c>
+      <c r="G11">
+        <v>12</v>
+      </c>
+      <c r="H11" s="1">
+        <v>35542</v>
+      </c>
+      <c r="I11">
+        <v>7</v>
+      </c>
+      <c r="J11">
+        <v>1</v>
+      </c>
+      <c r="K11">
+        <v>35</v>
+      </c>
+      <c r="L11">
+        <v>17</v>
+      </c>
+      <c r="M11">
+        <v>18</v>
+      </c>
+      <c r="N11" t="s">
+        <v>94</v>
+      </c>
+      <c r="O11">
+        <v>2</v>
+      </c>
+      <c r="P11">
+        <v>3</v>
+      </c>
+      <c r="Q11" s="22">
+        <f t="shared" si="0"/>
+        <v>0.05</v>
+      </c>
+    </row>
+    <row r="12" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A12" s="1">
+        <v>43883</v>
+      </c>
+      <c r="B12" t="s">
+        <v>101</v>
+      </c>
+      <c r="C12" t="s">
+        <v>102</v>
+      </c>
+      <c r="D12" t="s">
+        <v>23</v>
+      </c>
+      <c r="E12" t="s">
+        <v>24</v>
+      </c>
+      <c r="F12" t="s">
+        <v>6</v>
+      </c>
+      <c r="G12">
+        <v>59</v>
+      </c>
+      <c r="H12" s="1">
+        <v>32654</v>
+      </c>
+      <c r="I12">
+        <v>3</v>
+      </c>
+      <c r="J12">
+        <v>0.43</v>
+      </c>
+      <c r="K12">
+        <v>20</v>
+      </c>
+      <c r="L12">
+        <v>30</v>
+      </c>
+      <c r="M12">
+        <v>-10</v>
+      </c>
+      <c r="N12" t="s">
+        <v>94</v>
+      </c>
+      <c r="O12">
+        <v>40</v>
+      </c>
+      <c r="P12">
+        <v>16</v>
+      </c>
+      <c r="Q12" s="22">
+        <f t="shared" si="0"/>
+        <v>0.26666666666666666</v>
+      </c>
+    </row>
+    <row r="13" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A13" s="1">
+        <v>43883</v>
+      </c>
+      <c r="B13" t="s">
+        <v>101</v>
+      </c>
+      <c r="C13" t="s">
+        <v>102</v>
+      </c>
+      <c r="D13" t="s">
+        <v>25</v>
+      </c>
+      <c r="E13" t="s">
+        <v>12</v>
+      </c>
+      <c r="F13" t="s">
+        <v>6</v>
+      </c>
+      <c r="G13">
+        <v>17</v>
+      </c>
+      <c r="H13" s="1">
+        <v>34315</v>
+      </c>
+      <c r="I13">
+        <v>5</v>
+      </c>
+      <c r="J13">
+        <v>0.83</v>
+      </c>
+      <c r="K13">
+        <v>26</v>
+      </c>
+      <c r="L13">
+        <v>21</v>
+      </c>
+      <c r="M13">
+        <v>5</v>
+      </c>
+      <c r="N13" t="s">
+        <v>94</v>
+      </c>
+      <c r="O13">
+        <v>13</v>
+      </c>
+      <c r="P13">
+        <v>18</v>
+      </c>
+      <c r="Q13" s="22">
+        <f t="shared" si="0"/>
+        <v>0.3</v>
+      </c>
+    </row>
+    <row r="14" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A14" s="1">
+        <v>43883</v>
+      </c>
+      <c r="B14" t="s">
+        <v>101</v>
+      </c>
+      <c r="C14" t="s">
+        <v>102</v>
+      </c>
+      <c r="D14" t="s">
+        <v>26</v>
+      </c>
+      <c r="E14" t="s">
+        <v>10</v>
+      </c>
+      <c r="F14" t="s">
+        <v>6</v>
+      </c>
+      <c r="G14">
+        <v>38</v>
+      </c>
+      <c r="H14" s="1">
+        <v>34349</v>
+      </c>
+      <c r="I14">
+        <v>6</v>
+      </c>
+      <c r="J14">
+        <v>0.86</v>
+      </c>
+      <c r="K14">
+        <v>32</v>
+      </c>
+      <c r="L14">
+        <v>22</v>
+      </c>
+      <c r="M14">
+        <v>10</v>
+      </c>
+      <c r="N14" t="s">
+        <v>94</v>
+      </c>
+      <c r="O14">
+        <v>6</v>
+      </c>
+      <c r="P14">
+        <v>9</v>
+      </c>
+      <c r="Q14" s="22">
+        <f t="shared" si="0"/>
+        <v>0.15</v>
+      </c>
+    </row>
+    <row r="15" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A15" s="1">
+        <v>43883</v>
+      </c>
+      <c r="B15" t="s">
+        <v>101</v>
+      </c>
+      <c r="C15" t="s">
+        <v>102</v>
+      </c>
+      <c r="D15" t="s">
+        <v>27</v>
+      </c>
+      <c r="E15" t="s">
+        <v>12</v>
+      </c>
+      <c r="F15" t="s">
+        <v>6</v>
+      </c>
+      <c r="G15">
+        <v>24</v>
+      </c>
+      <c r="H15" s="1">
+        <v>36046</v>
+      </c>
+      <c r="I15">
+        <v>5</v>
+      </c>
+      <c r="J15">
+        <v>0.83</v>
+      </c>
+      <c r="K15">
+        <v>26</v>
+      </c>
+      <c r="L15">
+        <v>12</v>
+      </c>
+      <c r="M15">
+        <v>14</v>
+      </c>
+      <c r="N15" t="s">
+        <v>94</v>
+      </c>
+      <c r="O15">
+        <v>8</v>
+      </c>
+      <c r="P15">
+        <v>17</v>
+      </c>
+      <c r="Q15" s="22">
+        <f t="shared" si="0"/>
+        <v>0.28333333333333333</v>
+      </c>
+    </row>
+    <row r="16" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A16" s="1">
+        <v>43883</v>
+      </c>
+      <c r="B16" t="s">
+        <v>101</v>
+      </c>
+      <c r="C16" t="s">
+        <v>102</v>
+      </c>
+      <c r="D16" t="s">
+        <v>28</v>
+      </c>
+      <c r="E16" t="s">
+        <v>29</v>
+      </c>
+      <c r="F16" t="s">
+        <v>6</v>
+      </c>
+      <c r="G16">
+        <v>30</v>
+      </c>
+      <c r="H16" s="1">
+        <v>31413</v>
+      </c>
+      <c r="I16">
+        <v>4</v>
+      </c>
+      <c r="J16">
+        <v>0.56999999999999995</v>
+      </c>
+      <c r="K16">
+        <v>30</v>
+      </c>
+      <c r="L16">
+        <v>23</v>
+      </c>
+      <c r="M16">
+        <v>7</v>
+      </c>
+      <c r="N16" t="s">
+        <v>94</v>
+      </c>
+      <c r="O16">
+        <v>22</v>
+      </c>
+      <c r="P16">
+        <v>23</v>
+      </c>
+      <c r="Q16" s="22">
+        <f t="shared" si="0"/>
+        <v>0.38333333333333336</v>
+      </c>
+    </row>
+    <row r="17" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A17" s="1">
+        <v>43883</v>
+      </c>
+      <c r="B17" t="s">
+        <v>101</v>
+      </c>
+      <c r="C17" t="s">
+        <v>102</v>
+      </c>
+      <c r="D17" t="s">
+        <v>30</v>
+      </c>
+      <c r="E17" t="s">
+        <v>31</v>
+      </c>
+      <c r="F17" t="s">
+        <v>6</v>
+      </c>
+      <c r="G17">
+        <v>108</v>
+      </c>
+      <c r="H17" s="1">
+        <v>33562</v>
+      </c>
+      <c r="I17">
+        <v>3</v>
+      </c>
+      <c r="J17">
+        <v>0.5</v>
+      </c>
+      <c r="K17">
+        <v>15</v>
+      </c>
+      <c r="L17">
+        <v>27</v>
+      </c>
+      <c r="M17">
+        <v>-12</v>
+      </c>
+      <c r="N17" t="s">
+        <v>94</v>
+      </c>
+      <c r="O17">
+        <v>33</v>
+      </c>
+      <c r="P17">
+        <v>38</v>
+      </c>
+      <c r="Q17" s="22">
+        <f t="shared" si="0"/>
+        <v>0.6333333333333333</v>
+      </c>
+    </row>
+    <row r="18" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A18" s="1">
+        <v>43883</v>
+      </c>
+      <c r="B18" t="s">
+        <v>101</v>
+      </c>
+      <c r="C18" t="s">
+        <v>102</v>
+      </c>
+      <c r="D18" t="s">
+        <v>32</v>
+      </c>
+      <c r="E18" t="s">
+        <v>12</v>
+      </c>
+      <c r="F18" t="s">
+        <v>6</v>
+      </c>
+      <c r="G18">
+        <v>11</v>
+      </c>
+      <c r="H18" s="1">
+        <v>33673</v>
+      </c>
+      <c r="I18">
+        <v>6</v>
+      </c>
+      <c r="J18">
+        <v>0.86</v>
+      </c>
+      <c r="K18">
+        <v>33</v>
+      </c>
+      <c r="L18">
+        <v>14</v>
+      </c>
+      <c r="M18">
+        <v>19</v>
+      </c>
+      <c r="N18" t="s">
+        <v>94</v>
+      </c>
+      <c r="O18">
+        <v>5</v>
+      </c>
+      <c r="P18">
+        <v>5</v>
+      </c>
+      <c r="Q18" s="22">
+        <f t="shared" si="0"/>
+        <v>8.3333333333333329E-2</v>
+      </c>
+    </row>
+    <row r="19" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A19" s="1">
+        <v>43883</v>
+      </c>
+      <c r="B19" t="s">
+        <v>101</v>
+      </c>
+      <c r="C19" t="s">
+        <v>102</v>
+      </c>
+      <c r="D19" t="s">
+        <v>33</v>
+      </c>
+      <c r="E19" t="s">
+        <v>14</v>
+      </c>
+      <c r="F19" t="s">
+        <v>6</v>
+      </c>
+      <c r="G19">
+        <v>50</v>
+      </c>
+      <c r="H19" s="1">
+        <v>21027</v>
+      </c>
+      <c r="I19">
+        <v>2</v>
+      </c>
+      <c r="J19">
+        <v>0.33</v>
+      </c>
+      <c r="K19">
+        <v>24</v>
+      </c>
+      <c r="L19">
+        <v>28</v>
+      </c>
+      <c r="M19">
+        <v>-4</v>
+      </c>
+      <c r="N19" t="s">
+        <v>94</v>
+      </c>
+      <c r="O19">
+        <v>42</v>
+      </c>
+      <c r="P19">
+        <v>32</v>
+      </c>
+      <c r="Q19" s="22">
+        <f t="shared" si="0"/>
+        <v>0.53333333333333333</v>
+      </c>
+    </row>
+    <row r="20" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A20" s="1">
+        <v>43883</v>
+      </c>
+      <c r="B20" t="s">
+        <v>101</v>
+      </c>
+      <c r="C20" t="s">
+        <v>102</v>
+      </c>
+      <c r="D20" t="s">
+        <v>34</v>
+      </c>
+      <c r="E20" t="s">
+        <v>29</v>
+      </c>
+      <c r="F20" t="s">
+        <v>6</v>
+      </c>
+      <c r="G20">
+        <v>36</v>
+      </c>
+      <c r="H20" s="1">
+        <v>30503</v>
+      </c>
+      <c r="I20">
+        <v>4</v>
+      </c>
+      <c r="J20">
+        <v>0.67</v>
+      </c>
+      <c r="K20">
+        <v>26</v>
+      </c>
+      <c r="L20">
+        <v>16</v>
+      </c>
+      <c r="M20">
+        <v>10</v>
+      </c>
+      <c r="N20" t="s">
+        <v>94</v>
+      </c>
+      <c r="O20">
+        <v>18</v>
+      </c>
+      <c r="P20">
+        <v>20</v>
+      </c>
+      <c r="Q20" s="22">
+        <f t="shared" si="0"/>
+        <v>0.33333333333333331</v>
+      </c>
+    </row>
+    <row r="21" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A21" s="1">
+        <v>43883</v>
+      </c>
+      <c r="B21" t="s">
+        <v>101</v>
+      </c>
+      <c r="C21" t="s">
+        <v>102</v>
+      </c>
+      <c r="D21" t="s">
+        <v>84</v>
+      </c>
+      <c r="E21" t="s">
+        <v>85</v>
+      </c>
+      <c r="F21" t="s">
+        <v>86</v>
+      </c>
+      <c r="G21">
+        <v>999</v>
+      </c>
+      <c r="H21" s="1">
+        <v>31778</v>
+      </c>
+      <c r="I21">
+        <v>3</v>
+      </c>
+      <c r="J21">
+        <v>0.43</v>
+      </c>
+      <c r="K21">
+        <v>22</v>
+      </c>
+      <c r="L21">
+        <v>28</v>
+      </c>
+      <c r="M21">
+        <v>-6</v>
+      </c>
+      <c r="N21" t="s">
+        <v>94</v>
+      </c>
+      <c r="O21">
+        <v>38</v>
+      </c>
+      <c r="P21">
+        <v>29</v>
+      </c>
+      <c r="Q21" s="22">
+        <f t="shared" si="0"/>
+        <v>0.48333333333333334</v>
+      </c>
+    </row>
+    <row r="22" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A22" s="1">
+        <v>43883</v>
+      </c>
+      <c r="B22" t="s">
+        <v>101</v>
+      </c>
+      <c r="C22" t="s">
+        <v>102</v>
+      </c>
+      <c r="D22" t="s">
+        <v>35</v>
+      </c>
+      <c r="E22" t="s">
+        <v>31</v>
+      </c>
+      <c r="F22" t="s">
+        <v>6</v>
+      </c>
+      <c r="G22">
+        <v>24</v>
+      </c>
+      <c r="H22" s="1">
+        <v>36441</v>
+      </c>
+      <c r="I22">
+        <v>4</v>
+      </c>
+      <c r="J22">
+        <v>0.56999999999999995</v>
+      </c>
+      <c r="K22">
+        <v>29</v>
+      </c>
+      <c r="L22">
+        <v>27</v>
+      </c>
+      <c r="M22">
+        <v>2</v>
+      </c>
+      <c r="N22" t="s">
+        <v>94</v>
+      </c>
+      <c r="O22">
+        <v>25</v>
+      </c>
+      <c r="P22">
+        <v>35</v>
+      </c>
+      <c r="Q22" s="22">
+        <f t="shared" si="0"/>
+        <v>0.58333333333333337</v>
+      </c>
+    </row>
+    <row r="23" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A23" s="1">
+        <v>43883</v>
+      </c>
+      <c r="B23" t="s">
+        <v>101</v>
+      </c>
+      <c r="C23" t="s">
+        <v>102</v>
+      </c>
+      <c r="D23" t="s">
+        <v>36</v>
+      </c>
+      <c r="E23" t="s">
+        <v>24</v>
+      </c>
+      <c r="F23" t="s">
+        <v>6</v>
+      </c>
+      <c r="G23">
+        <v>89</v>
+      </c>
+      <c r="H23" s="1">
+        <v>30843</v>
+      </c>
+      <c r="I23">
+        <v>3</v>
+      </c>
+      <c r="J23">
+        <v>0.5</v>
+      </c>
+      <c r="K23">
+        <v>23</v>
+      </c>
+      <c r="L23">
+        <v>23</v>
+      </c>
+      <c r="M23">
+        <v>0</v>
+      </c>
+      <c r="N23" t="s">
+        <v>94</v>
+      </c>
+      <c r="O23">
+        <v>29</v>
+      </c>
+      <c r="P23">
+        <v>25</v>
+      </c>
+      <c r="Q23" s="22">
+        <f t="shared" si="0"/>
+        <v>0.41666666666666669</v>
+      </c>
+    </row>
+    <row r="24" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A24" s="1">
+        <v>43883</v>
+      </c>
+      <c r="B24" t="s">
+        <v>101</v>
+      </c>
+      <c r="C24" t="s">
+        <v>102</v>
+      </c>
+      <c r="D24" t="s">
+        <v>37</v>
+      </c>
+      <c r="E24" t="s">
+        <v>38</v>
+      </c>
+      <c r="F24" t="s">
+        <v>6</v>
+      </c>
+      <c r="G24">
+        <v>83</v>
+      </c>
+      <c r="H24" s="1">
+        <v>25022</v>
+      </c>
+      <c r="I24">
+        <v>2</v>
+      </c>
+      <c r="J24">
+        <v>0.33</v>
+      </c>
+      <c r="K24">
+        <v>19</v>
+      </c>
+      <c r="L24">
+        <v>27</v>
+      </c>
+      <c r="M24">
+        <v>-8</v>
+      </c>
+      <c r="N24" t="s">
+        <v>94</v>
+      </c>
+      <c r="O24">
+        <v>43</v>
+      </c>
+      <c r="P24">
+        <v>43</v>
+      </c>
+      <c r="Q24" s="22">
+        <f t="shared" si="0"/>
+        <v>0.71666666666666667</v>
+      </c>
+    </row>
+    <row r="25" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A25" s="1">
+        <v>43883</v>
+      </c>
+      <c r="B25" t="s">
+        <v>101</v>
+      </c>
+      <c r="C25" t="s">
+        <v>102</v>
+      </c>
+      <c r="D25" t="s">
+        <v>39</v>
+      </c>
+      <c r="E25" t="s">
+        <v>38</v>
+      </c>
+      <c r="F25" t="s">
+        <v>6</v>
+      </c>
+      <c r="G25">
+        <v>38</v>
+      </c>
+      <c r="H25" s="1">
+        <v>37523</v>
+      </c>
+      <c r="I25">
+        <v>3</v>
+      </c>
+      <c r="J25">
+        <v>0.5</v>
+      </c>
+      <c r="K25">
+        <v>19</v>
+      </c>
+      <c r="L25">
+        <v>22</v>
+      </c>
+      <c r="M25">
+        <v>-3</v>
+      </c>
+      <c r="N25" t="s">
+        <v>94</v>
+      </c>
+      <c r="O25">
+        <v>32</v>
+      </c>
+      <c r="P25">
+        <v>28</v>
+      </c>
+      <c r="Q25" s="22">
+        <f t="shared" si="0"/>
+        <v>0.46666666666666667</v>
+      </c>
+    </row>
+    <row r="26" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A26" s="1">
+        <v>43883</v>
+      </c>
+      <c r="B26" t="s">
+        <v>101</v>
+      </c>
+      <c r="C26" t="s">
+        <v>102</v>
+      </c>
+      <c r="D26" t="s">
+        <v>40</v>
+      </c>
+      <c r="E26" t="s">
+        <v>41</v>
+      </c>
+      <c r="F26" t="s">
+        <v>6</v>
+      </c>
+      <c r="G26">
+        <v>999</v>
+      </c>
+      <c r="H26" s="1">
+        <v>35065</v>
+      </c>
+      <c r="I26">
+        <v>1</v>
+      </c>
+      <c r="J26">
+        <v>0.14000000000000001</v>
+      </c>
+      <c r="K26">
+        <v>20</v>
+      </c>
+      <c r="L26">
+        <v>30</v>
+      </c>
+      <c r="M26">
+        <v>-10</v>
+      </c>
+      <c r="N26" t="s">
+        <v>95</v>
+      </c>
+      <c r="O26">
+        <v>57</v>
+      </c>
+      <c r="P26">
+        <v>57</v>
+      </c>
+      <c r="Q26" s="22">
+        <f t="shared" si="0"/>
+        <v>0.95</v>
+      </c>
+    </row>
+    <row r="27" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A27" s="1">
+        <v>43883</v>
+      </c>
+      <c r="B27" t="s">
+        <v>101</v>
+      </c>
+      <c r="C27" t="s">
+        <v>102</v>
+      </c>
+      <c r="D27" t="s">
+        <v>42</v>
+      </c>
+      <c r="E27" t="s">
+        <v>29</v>
+      </c>
+      <c r="F27" t="s">
+        <v>6</v>
+      </c>
+      <c r="G27">
+        <v>1</v>
+      </c>
+      <c r="H27" s="1">
+        <v>36324</v>
+      </c>
+      <c r="I27">
+        <v>5</v>
+      </c>
+      <c r="J27">
+        <v>0.83</v>
+      </c>
+      <c r="K27">
+        <v>27</v>
+      </c>
+      <c r="L27">
+        <v>11</v>
+      </c>
+      <c r="M27">
+        <v>16</v>
+      </c>
+      <c r="N27" t="s">
+        <v>94</v>
+      </c>
+      <c r="O27">
+        <v>7</v>
+      </c>
+      <c r="P27">
+        <v>10</v>
+      </c>
+      <c r="Q27" s="22">
+        <f t="shared" si="0"/>
+        <v>0.16666666666666666</v>
+      </c>
+    </row>
+    <row r="28" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A28" s="1">
+        <v>43883</v>
+      </c>
+      <c r="B28" t="s">
+        <v>101</v>
+      </c>
+      <c r="C28" t="s">
+        <v>102</v>
+      </c>
+      <c r="D28" t="s">
+        <v>43</v>
+      </c>
+      <c r="E28" t="s">
+        <v>29</v>
+      </c>
+      <c r="F28" t="s">
+        <v>6</v>
+      </c>
+      <c r="G28">
+        <v>21</v>
+      </c>
+      <c r="H28" s="1">
+        <v>35450</v>
+      </c>
+      <c r="I28">
+        <v>5</v>
+      </c>
+      <c r="J28">
+        <v>0.71</v>
+      </c>
+      <c r="K28">
+        <v>30</v>
+      </c>
+      <c r="L28">
+        <v>20</v>
+      </c>
+      <c r="M28">
+        <v>10</v>
+      </c>
+      <c r="N28" t="s">
+        <v>94</v>
+      </c>
+      <c r="O28">
+        <v>14</v>
+      </c>
+      <c r="P28">
+        <v>12</v>
+      </c>
+      <c r="Q28" s="22">
+        <f t="shared" si="0"/>
+        <v>0.2</v>
+      </c>
+    </row>
+    <row r="29" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A29" s="1">
+        <v>43883</v>
+      </c>
+      <c r="B29" t="s">
+        <v>101</v>
+      </c>
+      <c r="C29" t="s">
+        <v>102</v>
+      </c>
+      <c r="D29" t="s">
+        <v>44</v>
+      </c>
+      <c r="E29" t="s">
+        <v>24</v>
+      </c>
+      <c r="F29" t="s">
+        <v>6</v>
+      </c>
+      <c r="G29">
+        <v>45</v>
+      </c>
+      <c r="H29" s="1">
+        <v>30784</v>
+      </c>
+      <c r="I29">
+        <v>3</v>
+      </c>
+      <c r="J29">
+        <v>0.5</v>
+      </c>
+      <c r="K29">
+        <v>22</v>
+      </c>
+      <c r="L29">
+        <v>22</v>
+      </c>
+      <c r="M29">
+        <v>0</v>
+      </c>
+      <c r="N29" t="s">
+        <v>94</v>
+      </c>
+      <c r="O29">
+        <v>30</v>
+      </c>
+      <c r="P29">
+        <v>26</v>
+      </c>
+      <c r="Q29" s="22">
+        <f t="shared" si="0"/>
+        <v>0.43333333333333335</v>
+      </c>
+    </row>
+    <row r="30" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A30" s="1">
+        <v>43883</v>
+      </c>
+      <c r="B30" t="s">
+        <v>101</v>
+      </c>
+      <c r="C30" t="s">
+        <v>102</v>
+      </c>
+      <c r="D30" t="s">
+        <v>45</v>
+      </c>
+      <c r="E30" t="s">
+        <v>10</v>
+      </c>
+      <c r="F30" t="s">
+        <v>6</v>
+      </c>
+      <c r="G30">
+        <v>59</v>
+      </c>
+      <c r="H30" s="1">
+        <v>29419</v>
+      </c>
+      <c r="I30">
+        <v>5</v>
+      </c>
+      <c r="J30">
+        <v>0.71</v>
+      </c>
+      <c r="K30">
+        <v>32</v>
+      </c>
+      <c r="L30">
+        <v>24</v>
+      </c>
+      <c r="M30">
+        <v>8</v>
+      </c>
+      <c r="N30" t="s">
+        <v>94</v>
+      </c>
+      <c r="O30">
+        <v>15</v>
+      </c>
+      <c r="P30">
+        <v>13</v>
+      </c>
+      <c r="Q30" s="22">
+        <f t="shared" si="0"/>
+        <v>0.21666666666666667</v>
+      </c>
+    </row>
+    <row r="31" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A31" s="1">
+        <v>43883</v>
+      </c>
+      <c r="B31" t="s">
+        <v>101</v>
+      </c>
+      <c r="C31" t="s">
+        <v>102</v>
+      </c>
+      <c r="D31" t="s">
+        <v>46</v>
+      </c>
+      <c r="E31" t="s">
+        <v>47</v>
+      </c>
+      <c r="F31" t="s">
+        <v>6</v>
+      </c>
+      <c r="G31">
+        <v>22</v>
+      </c>
+      <c r="H31" s="1">
+        <v>33414</v>
+      </c>
+      <c r="I31">
+        <v>2</v>
+      </c>
+      <c r="J31">
+        <v>0.33</v>
+      </c>
+      <c r="K31">
+        <v>25</v>
+      </c>
+      <c r="L31">
+        <v>27</v>
+      </c>
+      <c r="M31">
+        <v>-2</v>
+      </c>
+      <c r="N31" t="s">
+        <v>94</v>
+      </c>
+      <c r="O31">
+        <v>41</v>
+      </c>
+      <c r="P31">
+        <v>31</v>
+      </c>
+      <c r="Q31" s="22">
+        <f t="shared" si="0"/>
+        <v>0.51666666666666672</v>
+      </c>
+    </row>
+    <row r="32" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A32" s="1">
+        <v>43883</v>
+      </c>
+      <c r="B32" t="s">
+        <v>101</v>
+      </c>
+      <c r="C32" t="s">
+        <v>102</v>
+      </c>
+      <c r="D32" t="s">
+        <v>48</v>
+      </c>
+      <c r="E32" t="s">
+        <v>14</v>
+      </c>
+      <c r="F32" t="s">
+        <v>6</v>
+      </c>
+      <c r="G32">
+        <v>13</v>
+      </c>
+      <c r="H32" s="1">
+        <v>37115</v>
+      </c>
+      <c r="I32">
+        <v>3</v>
+      </c>
+      <c r="J32">
+        <v>0.43</v>
+      </c>
+      <c r="K32">
+        <v>23</v>
+      </c>
+      <c r="L32">
+        <v>28</v>
+      </c>
+      <c r="M32">
+        <v>-5</v>
+      </c>
+      <c r="N32" t="s">
+        <v>94</v>
+      </c>
+      <c r="O32">
+        <v>37</v>
+      </c>
+      <c r="P32">
+        <v>42</v>
+      </c>
+      <c r="Q32" s="22">
+        <f t="shared" si="0"/>
+        <v>0.7</v>
+      </c>
+    </row>
+    <row r="33" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A33" s="1">
+        <v>43883</v>
+      </c>
+      <c r="B33" t="s">
+        <v>101</v>
+      </c>
+      <c r="C33" t="s">
+        <v>102</v>
+      </c>
+      <c r="D33" t="s">
+        <v>49</v>
+      </c>
+      <c r="E33" t="s">
+        <v>12</v>
+      </c>
+      <c r="F33" t="s">
+        <v>6</v>
+      </c>
+      <c r="G33">
+        <v>14</v>
+      </c>
+      <c r="H33" s="1">
+        <v>34789</v>
+      </c>
+      <c r="I33">
+        <v>4</v>
+      </c>
+      <c r="J33">
+        <v>0.56999999999999995</v>
+      </c>
+      <c r="K33">
+        <v>28</v>
+      </c>
+      <c r="L33">
+        <v>27</v>
+      </c>
+      <c r="M33">
+        <v>1</v>
+      </c>
+      <c r="N33" t="s">
+        <v>94</v>
+      </c>
+      <c r="O33">
+        <v>26</v>
+      </c>
+      <c r="P33">
+        <v>36</v>
+      </c>
+      <c r="Q33" s="22">
+        <f t="shared" si="0"/>
+        <v>0.6</v>
+      </c>
+    </row>
+    <row r="34" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A34" s="1">
+        <v>43883</v>
+      </c>
+      <c r="B34" t="s">
+        <v>101</v>
+      </c>
+      <c r="C34" t="s">
+        <v>102</v>
+      </c>
+      <c r="D34" t="s">
+        <v>50</v>
+      </c>
+      <c r="E34" t="s">
+        <v>41</v>
+      </c>
+      <c r="F34" t="s">
+        <v>6</v>
+      </c>
+      <c r="G34">
+        <v>75</v>
+      </c>
+      <c r="H34" s="1">
+        <v>30881</v>
+      </c>
+      <c r="I34">
+        <v>2</v>
+      </c>
+      <c r="J34">
+        <v>0.28999999999999998</v>
+      </c>
+      <c r="K34">
+        <v>25</v>
+      </c>
+      <c r="L34">
+        <v>33</v>
+      </c>
+      <c r="M34">
+        <v>-8</v>
+      </c>
+      <c r="N34" t="s">
+        <v>94</v>
+      </c>
+      <c r="O34">
+        <v>47</v>
+      </c>
+      <c r="P34">
+        <v>47</v>
+      </c>
+      <c r="Q34" s="22">
+        <f t="shared" si="0"/>
+        <v>0.78333333333333333</v>
+      </c>
+    </row>
+    <row r="35" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A35" s="1">
+        <v>43883</v>
+      </c>
+      <c r="B35" t="s">
+        <v>101</v>
+      </c>
+      <c r="C35" t="s">
+        <v>102</v>
+      </c>
+      <c r="D35" t="s">
+        <v>51</v>
+      </c>
+      <c r="E35" t="s">
+        <v>18</v>
+      </c>
+      <c r="F35" t="s">
+        <v>6</v>
+      </c>
+      <c r="G35">
+        <v>999</v>
+      </c>
+      <c r="H35" s="1">
+        <v>35796</v>
+      </c>
+      <c r="I35">
+        <v>0</v>
+      </c>
+      <c r="J35">
+        <v>0</v>
+      </c>
+      <c r="K35">
+        <v>5</v>
+      </c>
+      <c r="L35">
+        <v>35</v>
+      </c>
+      <c r="M35">
+        <v>-30</v>
+      </c>
+      <c r="N35" t="s">
+        <v>95</v>
+      </c>
+      <c r="O35">
+        <v>59</v>
+      </c>
+      <c r="P35">
+        <v>59</v>
+      </c>
+      <c r="Q35" s="22">
+        <f t="shared" si="0"/>
+        <v>0.98333333333333328</v>
+      </c>
+    </row>
+    <row r="36" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A36" s="1">
+        <v>43883</v>
+      </c>
+      <c r="B36" t="s">
+        <v>101</v>
+      </c>
+      <c r="C36" t="s">
+        <v>102</v>
+      </c>
+      <c r="D36" t="s">
+        <v>52</v>
+      </c>
+      <c r="E36" t="s">
+        <v>10</v>
+      </c>
+      <c r="F36" t="s">
+        <v>6</v>
+      </c>
+      <c r="G36">
+        <v>54</v>
+      </c>
+      <c r="H36" s="1">
+        <v>33420</v>
+      </c>
+      <c r="I36">
+        <v>1</v>
+      </c>
+      <c r="J36">
+        <v>0.17</v>
+      </c>
+      <c r="K36">
+        <v>17</v>
+      </c>
+      <c r="L36">
+        <v>28</v>
+      </c>
+      <c r="M36">
+        <v>-11</v>
+      </c>
+      <c r="N36" t="s">
+        <v>95</v>
+      </c>
+      <c r="O36">
+        <v>51</v>
+      </c>
+      <c r="P36">
+        <v>51</v>
+      </c>
+      <c r="Q36" s="22">
+        <f t="shared" si="0"/>
+        <v>0.85</v>
+      </c>
+    </row>
+    <row r="37" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A37" s="1">
+        <v>43883</v>
+      </c>
+      <c r="B37" t="s">
+        <v>101</v>
+      </c>
+      <c r="C37" t="s">
+        <v>102</v>
+      </c>
+      <c r="D37" t="s">
+        <v>53</v>
+      </c>
+      <c r="E37" t="s">
+        <v>54</v>
+      </c>
+      <c r="F37" t="s">
+        <v>6</v>
+      </c>
+      <c r="G37">
+        <v>83</v>
+      </c>
+      <c r="H37" s="1">
+        <v>34537</v>
+      </c>
+      <c r="I37">
+        <v>1</v>
+      </c>
+      <c r="J37">
+        <v>0.17</v>
+      </c>
+      <c r="K37">
+        <v>17</v>
+      </c>
+      <c r="L37">
+        <v>29</v>
+      </c>
+      <c r="M37">
+        <v>-12</v>
+      </c>
+      <c r="N37" t="s">
+        <v>95</v>
+      </c>
+      <c r="O37">
+        <v>52</v>
+      </c>
+      <c r="P37">
+        <v>52</v>
+      </c>
+      <c r="Q37" s="22">
+        <f t="shared" si="0"/>
+        <v>0.8666666666666667</v>
+      </c>
+    </row>
+    <row r="38" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A38" s="1">
+        <v>43883</v>
+      </c>
+      <c r="B38" t="s">
+        <v>101</v>
+      </c>
+      <c r="C38" t="s">
+        <v>102</v>
+      </c>
+      <c r="D38" t="s">
+        <v>55</v>
+      </c>
+      <c r="E38" t="s">
+        <v>29</v>
+      </c>
+      <c r="F38" t="s">
+        <v>6</v>
+      </c>
+      <c r="G38">
+        <v>67</v>
+      </c>
+      <c r="H38" s="1">
+        <v>36821</v>
+      </c>
+      <c r="I38">
+        <v>4</v>
+      </c>
+      <c r="J38">
+        <v>0.56999999999999995</v>
+      </c>
+      <c r="K38">
+        <v>30</v>
+      </c>
+      <c r="L38">
+        <v>19</v>
+      </c>
+      <c r="M38">
+        <v>11</v>
+      </c>
+      <c r="N38" t="s">
+        <v>94</v>
+      </c>
+      <c r="O38">
+        <v>20</v>
+      </c>
+      <c r="P38">
+        <v>15</v>
+      </c>
+      <c r="Q38" s="22">
+        <f t="shared" si="0"/>
+        <v>0.25</v>
+      </c>
+    </row>
+    <row r="39" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A39" s="1">
+        <v>43883</v>
+      </c>
+      <c r="B39" t="s">
+        <v>101</v>
+      </c>
+      <c r="C39" t="s">
+        <v>102</v>
+      </c>
+      <c r="D39" s="6" t="s">
+        <v>56</v>
+      </c>
+      <c r="E39" s="6" t="s">
+        <v>57</v>
+      </c>
+      <c r="F39" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="G39" s="6">
+        <v>999</v>
+      </c>
+      <c r="H39" s="7">
+        <v>36161</v>
+      </c>
+      <c r="I39" s="5" t="s">
+        <v>104</v>
+      </c>
+      <c r="J39" s="5" t="s">
+        <v>104</v>
+      </c>
+      <c r="K39" s="5" t="s">
+        <v>104</v>
+      </c>
+      <c r="L39" s="5" t="s">
+        <v>104</v>
+      </c>
+      <c r="M39" s="5" t="s">
+        <v>104</v>
+      </c>
+      <c r="N39" s="5" t="s">
+        <v>104</v>
+      </c>
+      <c r="O39" s="5" t="s">
+        <v>104</v>
+      </c>
+      <c r="P39" s="5" t="s">
+        <v>104</v>
+      </c>
+      <c r="Q39" s="5" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="40" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A40" s="1">
+        <v>43883</v>
+      </c>
+      <c r="B40" t="s">
+        <v>101</v>
+      </c>
+      <c r="C40" t="s">
+        <v>102</v>
+      </c>
+      <c r="D40" t="s">
+        <v>58</v>
+      </c>
+      <c r="E40" t="s">
+        <v>12</v>
+      </c>
+      <c r="F40" t="s">
+        <v>6</v>
+      </c>
+      <c r="G40">
+        <v>16</v>
+      </c>
+      <c r="H40" s="1">
+        <v>36782</v>
+      </c>
+      <c r="I40">
+        <v>5</v>
+      </c>
+      <c r="J40">
+        <v>0.83</v>
+      </c>
+      <c r="K40">
+        <v>28</v>
+      </c>
+      <c r="L40">
+        <v>15</v>
+      </c>
+      <c r="M40">
+        <v>13</v>
+      </c>
+      <c r="N40" t="s">
+        <v>94</v>
+      </c>
+      <c r="O40">
+        <v>9</v>
+      </c>
+      <c r="P40">
+        <v>6</v>
+      </c>
+      <c r="Q40" s="22">
+        <f t="shared" si="0"/>
+        <v>0.1</v>
+      </c>
+    </row>
+    <row r="41" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A41" s="1">
+        <v>43883</v>
+      </c>
+      <c r="B41" t="s">
+        <v>101</v>
+      </c>
+      <c r="C41" t="s">
+        <v>102</v>
+      </c>
+      <c r="D41" t="s">
+        <v>59</v>
+      </c>
+      <c r="E41" t="s">
+        <v>29</v>
+      </c>
+      <c r="F41" t="s">
+        <v>6</v>
+      </c>
+      <c r="G41">
+        <v>999</v>
+      </c>
+      <c r="H41" s="1">
+        <v>38353</v>
+      </c>
+      <c r="I41">
+        <v>1</v>
+      </c>
+      <c r="J41">
+        <v>0.17</v>
+      </c>
+      <c r="K41">
+        <v>12</v>
+      </c>
+      <c r="L41">
+        <v>29</v>
+      </c>
+      <c r="M41">
+        <v>-17</v>
+      </c>
+      <c r="N41" t="s">
+        <v>95</v>
+      </c>
+      <c r="O41">
+        <v>55</v>
+      </c>
+      <c r="P41">
+        <v>55</v>
+      </c>
+      <c r="Q41" s="22">
+        <f t="shared" si="0"/>
+        <v>0.91666666666666663</v>
+      </c>
+    </row>
+    <row r="42" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A42" s="1">
+        <v>43883</v>
+      </c>
+      <c r="B42" t="s">
+        <v>101</v>
+      </c>
+      <c r="C42" t="s">
+        <v>102</v>
+      </c>
+      <c r="D42" t="s">
+        <v>60</v>
+      </c>
+      <c r="E42" t="s">
+        <v>12</v>
+      </c>
+      <c r="F42" t="s">
+        <v>6</v>
+      </c>
+      <c r="G42">
+        <v>6</v>
+      </c>
+      <c r="H42" s="1">
+        <v>33430</v>
+      </c>
+      <c r="I42">
+        <v>7</v>
+      </c>
+      <c r="J42">
+        <v>1</v>
+      </c>
+      <c r="K42">
+        <v>35</v>
+      </c>
+      <c r="L42">
+        <v>15</v>
+      </c>
+      <c r="M42">
+        <v>20</v>
+      </c>
+      <c r="N42" t="s">
+        <v>94</v>
+      </c>
+      <c r="O42">
+        <v>1</v>
+      </c>
+      <c r="P42">
+        <v>1</v>
+      </c>
+      <c r="Q42" s="22">
+        <f t="shared" si="0"/>
+        <v>1.6666666666666666E-2</v>
+      </c>
+    </row>
+    <row r="43" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A43" s="1">
+        <v>43883</v>
+      </c>
+      <c r="B43" t="s">
+        <v>101</v>
+      </c>
+      <c r="C43" t="s">
+        <v>102</v>
+      </c>
+      <c r="D43" t="s">
+        <v>61</v>
+      </c>
+      <c r="E43" t="s">
+        <v>5</v>
+      </c>
+      <c r="F43" t="s">
+        <v>6</v>
+      </c>
+      <c r="G43">
+        <v>42</v>
+      </c>
+      <c r="H43" s="1">
+        <v>27395</v>
+      </c>
+      <c r="I43">
+        <v>1</v>
+      </c>
+      <c r="J43">
+        <v>0.17</v>
+      </c>
+      <c r="K43">
+        <v>14</v>
+      </c>
+      <c r="L43">
+        <v>27</v>
+      </c>
+      <c r="M43">
+        <v>-13</v>
+      </c>
+      <c r="N43" t="s">
+        <v>95</v>
+      </c>
+      <c r="O43">
+        <v>54</v>
+      </c>
+      <c r="P43">
+        <v>54</v>
+      </c>
+      <c r="Q43" s="22">
+        <f t="shared" si="0"/>
+        <v>0.9</v>
+      </c>
+    </row>
+    <row r="44" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A44" s="1">
+        <v>43883</v>
+      </c>
+      <c r="B44" t="s">
+        <v>101</v>
+      </c>
+      <c r="C44" t="s">
+        <v>102</v>
+      </c>
+      <c r="D44" t="s">
+        <v>62</v>
+      </c>
+      <c r="E44" t="s">
+        <v>47</v>
+      </c>
+      <c r="F44" t="s">
+        <v>6</v>
+      </c>
+      <c r="G44">
+        <v>4</v>
+      </c>
+      <c r="H44" s="1">
+        <v>35324</v>
+      </c>
+      <c r="I44">
+        <v>5</v>
+      </c>
+      <c r="J44">
+        <v>0.83</v>
+      </c>
+      <c r="K44">
+        <v>28</v>
+      </c>
+      <c r="L44">
+        <v>15</v>
+      </c>
+      <c r="M44">
+        <v>13</v>
+      </c>
+      <c r="N44" t="s">
+        <v>94</v>
+      </c>
+      <c r="O44">
+        <v>9</v>
+      </c>
+      <c r="P44">
+        <v>6</v>
+      </c>
+      <c r="Q44" s="22">
+        <f t="shared" si="0"/>
+        <v>0.1</v>
+      </c>
+    </row>
+    <row r="45" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A45" s="1">
+        <v>43883</v>
+      </c>
+      <c r="B45" t="s">
+        <v>101</v>
+      </c>
+      <c r="C45" t="s">
+        <v>102</v>
+      </c>
+      <c r="D45" t="s">
+        <v>63</v>
+      </c>
+      <c r="E45" t="s">
+        <v>12</v>
+      </c>
+      <c r="F45" t="s">
+        <v>6</v>
+      </c>
+      <c r="G45">
+        <v>30</v>
+      </c>
+      <c r="H45" s="1">
+        <v>37101</v>
+      </c>
+      <c r="I45">
+        <v>3</v>
+      </c>
+      <c r="J45">
+        <v>0.43</v>
+      </c>
+      <c r="K45">
+        <v>26</v>
+      </c>
+      <c r="L45">
+        <v>29</v>
+      </c>
+      <c r="M45">
+        <v>-3</v>
+      </c>
+      <c r="N45" t="s">
+        <v>94</v>
+      </c>
+      <c r="O45">
+        <v>36</v>
+      </c>
+      <c r="P45">
+        <v>41</v>
+      </c>
+      <c r="Q45" s="22">
+        <f t="shared" si="0"/>
+        <v>0.68333333333333335</v>
+      </c>
+    </row>
+    <row r="46" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A46" s="1">
+        <v>43883</v>
+      </c>
+      <c r="B46" t="s">
+        <v>101</v>
+      </c>
+      <c r="C46" t="s">
+        <v>102</v>
+      </c>
+      <c r="D46" t="s">
+        <v>64</v>
+      </c>
+      <c r="E46" t="s">
+        <v>12</v>
+      </c>
+      <c r="F46" t="s">
+        <v>6</v>
+      </c>
+      <c r="G46">
+        <v>9</v>
+      </c>
+      <c r="H46" s="1">
+        <v>37101</v>
+      </c>
+      <c r="I46">
+        <v>4</v>
+      </c>
+      <c r="J46">
+        <v>0.56999999999999995</v>
+      </c>
+      <c r="K46">
+        <v>28</v>
+      </c>
+      <c r="L46">
+        <v>21</v>
+      </c>
+      <c r="M46">
+        <v>7</v>
+      </c>
+      <c r="N46" t="s">
+        <v>94</v>
+      </c>
+      <c r="O46">
+        <v>23</v>
+      </c>
+      <c r="P46">
+        <v>33</v>
+      </c>
+      <c r="Q46" s="22">
+        <f t="shared" si="0"/>
+        <v>0.55000000000000004</v>
+      </c>
+    </row>
+    <row r="47" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A47" s="1">
+        <v>43883</v>
+      </c>
+      <c r="B47" t="s">
+        <v>101</v>
+      </c>
+      <c r="C47" t="s">
+        <v>102</v>
+      </c>
+      <c r="D47" t="s">
+        <v>65</v>
+      </c>
+      <c r="E47" t="s">
+        <v>14</v>
+      </c>
+      <c r="F47" t="s">
+        <v>6</v>
+      </c>
+      <c r="G47">
+        <v>65</v>
+      </c>
+      <c r="H47" s="1">
+        <v>37028</v>
+      </c>
+      <c r="I47">
+        <v>3</v>
+      </c>
+      <c r="J47">
+        <v>0.43</v>
+      </c>
+      <c r="K47">
+        <v>23</v>
+      </c>
+      <c r="L47">
+        <v>32</v>
+      </c>
+      <c r="M47">
+        <v>-9</v>
+      </c>
+      <c r="N47" t="s">
+        <v>94</v>
+      </c>
+      <c r="O47">
+        <v>39</v>
+      </c>
+      <c r="P47">
+        <v>30</v>
+      </c>
+      <c r="Q47" s="22">
+        <f t="shared" si="0"/>
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="48" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A48" s="1">
+        <v>43883</v>
+      </c>
+      <c r="B48" t="s">
+        <v>101</v>
+      </c>
+      <c r="C48" t="s">
+        <v>102</v>
+      </c>
+      <c r="D48" t="s">
+        <v>66</v>
+      </c>
+      <c r="E48" t="s">
+        <v>29</v>
+      </c>
+      <c r="F48" t="s">
+        <v>6</v>
+      </c>
+      <c r="G48">
+        <v>19</v>
+      </c>
+      <c r="H48" s="1">
+        <v>36219</v>
+      </c>
+      <c r="I48">
+        <v>5</v>
+      </c>
+      <c r="J48">
+        <v>0.83</v>
+      </c>
+      <c r="K48">
+        <v>27</v>
+      </c>
+      <c r="L48">
+        <v>20</v>
+      </c>
+      <c r="M48">
+        <v>7</v>
+      </c>
+      <c r="N48" t="s">
+        <v>94</v>
+      </c>
+      <c r="O48">
+        <v>12</v>
+      </c>
+      <c r="P48">
+        <v>11</v>
+      </c>
+      <c r="Q48" s="22">
+        <f t="shared" si="0"/>
+        <v>0.18333333333333332</v>
+      </c>
+    </row>
+    <row r="49" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A49" s="1">
+        <v>43883</v>
+      </c>
+      <c r="B49" t="s">
+        <v>101</v>
+      </c>
+      <c r="C49" t="s">
+        <v>102</v>
+      </c>
+      <c r="D49" t="s">
+        <v>67</v>
+      </c>
+      <c r="E49" t="s">
+        <v>14</v>
+      </c>
+      <c r="F49" t="s">
+        <v>6</v>
+      </c>
+      <c r="G49">
+        <v>50</v>
+      </c>
+      <c r="H49" s="1">
+        <v>36128</v>
+      </c>
+      <c r="I49">
+        <v>1</v>
+      </c>
+      <c r="J49">
+        <v>0.17</v>
+      </c>
+      <c r="K49">
+        <v>19</v>
+      </c>
+      <c r="L49">
+        <v>27</v>
+      </c>
+      <c r="M49">
+        <v>-8</v>
+      </c>
+      <c r="N49" t="s">
+        <v>94</v>
+      </c>
+      <c r="O49">
+        <v>48</v>
+      </c>
+      <c r="P49">
+        <v>48</v>
+      </c>
+      <c r="Q49" s="22">
+        <f t="shared" si="0"/>
+        <v>0.8</v>
+      </c>
+    </row>
+    <row r="50" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A50" s="1">
+        <v>43883</v>
+      </c>
+      <c r="B50" t="s">
+        <v>101</v>
+      </c>
+      <c r="C50" t="s">
+        <v>102</v>
+      </c>
+      <c r="D50" t="s">
+        <v>68</v>
+      </c>
+      <c r="E50" t="s">
+        <v>14</v>
+      </c>
+      <c r="F50" t="s">
+        <v>6</v>
+      </c>
+      <c r="G50">
+        <v>67</v>
+      </c>
+      <c r="H50" s="1">
+        <v>24724</v>
+      </c>
+      <c r="I50">
+        <v>4</v>
+      </c>
+      <c r="J50">
+        <v>0.56999999999999995</v>
+      </c>
+      <c r="K50">
+        <v>29</v>
+      </c>
+      <c r="L50">
+        <v>26</v>
+      </c>
+      <c r="M50">
+        <v>3</v>
+      </c>
+      <c r="N50" t="s">
+        <v>94</v>
+      </c>
+      <c r="O50">
+        <v>24</v>
+      </c>
+      <c r="P50">
+        <v>34</v>
+      </c>
+      <c r="Q50" s="22">
+        <f t="shared" si="0"/>
+        <v>0.56666666666666665</v>
+      </c>
+    </row>
+    <row r="51" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A51" s="1">
+        <v>43883</v>
+      </c>
+      <c r="B51" t="s">
+        <v>101</v>
+      </c>
+      <c r="C51" t="s">
+        <v>102</v>
+      </c>
+      <c r="D51" t="s">
+        <v>69</v>
+      </c>
+      <c r="E51" t="s">
+        <v>29</v>
+      </c>
+      <c r="F51" t="s">
+        <v>6</v>
+      </c>
+      <c r="G51">
+        <v>32</v>
+      </c>
+      <c r="H51" s="1">
+        <v>26219</v>
+      </c>
+      <c r="I51">
+        <v>3</v>
+      </c>
+      <c r="J51">
+        <v>0.43</v>
+      </c>
+      <c r="K51">
+        <v>28</v>
+      </c>
+      <c r="L51">
+        <v>28</v>
+      </c>
+      <c r="M51">
+        <v>0</v>
+      </c>
+      <c r="N51" t="s">
+        <v>94</v>
+      </c>
+      <c r="O51">
+        <v>34</v>
+      </c>
+      <c r="P51">
+        <v>39</v>
+      </c>
+      <c r="Q51" s="22">
+        <f t="shared" si="0"/>
+        <v>0.65</v>
+      </c>
+    </row>
+    <row r="52" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A52" s="1">
+        <v>43883</v>
+      </c>
+      <c r="B52" t="s">
+        <v>101</v>
+      </c>
+      <c r="C52" t="s">
+        <v>102</v>
+      </c>
+      <c r="D52" t="s">
+        <v>70</v>
+      </c>
+      <c r="E52" t="s">
+        <v>71</v>
+      </c>
+      <c r="F52" t="s">
+        <v>6</v>
+      </c>
+      <c r="G52">
+        <v>999</v>
+      </c>
+      <c r="H52" s="1">
+        <v>31778</v>
+      </c>
+      <c r="I52">
+        <v>0</v>
+      </c>
+      <c r="J52">
+        <v>0</v>
+      </c>
+      <c r="K52">
+        <v>4</v>
+      </c>
+      <c r="L52">
+        <v>35</v>
+      </c>
+      <c r="M52">
+        <v>-31</v>
+      </c>
+      <c r="N52" t="s">
+        <v>95</v>
+      </c>
+      <c r="O52">
+        <v>60</v>
+      </c>
+      <c r="P52">
+        <v>60</v>
+      </c>
+      <c r="Q52" s="22">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="53" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A53" s="1">
+        <v>43883</v>
+      </c>
+      <c r="B53" t="s">
+        <v>101</v>
+      </c>
+      <c r="C53" t="s">
+        <v>102</v>
+      </c>
+      <c r="D53" t="s">
+        <v>72</v>
+      </c>
+      <c r="E53" t="s">
+        <v>14</v>
+      </c>
+      <c r="F53" t="s">
+        <v>6</v>
+      </c>
+      <c r="G53">
+        <v>19</v>
+      </c>
+      <c r="H53" s="1">
+        <v>27427</v>
+      </c>
+      <c r="I53">
+        <v>4</v>
+      </c>
+      <c r="J53">
+        <v>0.67</v>
+      </c>
+      <c r="K53">
+        <v>26</v>
+      </c>
+      <c r="L53">
+        <v>18</v>
+      </c>
+      <c r="M53">
+        <v>8</v>
+      </c>
+      <c r="N53" t="s">
+        <v>94</v>
+      </c>
+      <c r="O53">
+        <v>19</v>
+      </c>
+      <c r="P53">
+        <v>21</v>
+      </c>
+      <c r="Q53" s="22">
+        <f t="shared" si="0"/>
+        <v>0.35</v>
+      </c>
+    </row>
+    <row r="54" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A54" s="1">
+        <v>43883</v>
+      </c>
+      <c r="B54" t="s">
+        <v>101</v>
+      </c>
+      <c r="C54" t="s">
+        <v>102</v>
+      </c>
+      <c r="D54" t="s">
+        <v>73</v>
+      </c>
+      <c r="E54" s="23" t="s">
+        <v>14</v>
+      </c>
+      <c r="F54" t="s">
+        <v>6</v>
+      </c>
+      <c r="G54">
+        <v>108</v>
+      </c>
+      <c r="H54" s="1">
+        <v>38141</v>
+      </c>
+      <c r="I54">
+        <v>1</v>
+      </c>
+      <c r="J54">
+        <v>0.14000000000000001</v>
+      </c>
+      <c r="K54">
+        <v>21</v>
+      </c>
+      <c r="L54">
+        <v>31</v>
+      </c>
+      <c r="M54">
+        <v>-10</v>
+      </c>
+      <c r="N54" t="s">
+        <v>95</v>
+      </c>
+      <c r="O54">
+        <v>56</v>
+      </c>
+      <c r="P54">
+        <v>56</v>
+      </c>
+      <c r="Q54" s="22">
+        <f t="shared" si="0"/>
+        <v>0.93333333333333335</v>
+      </c>
+    </row>
+    <row r="55" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A55" s="1">
+        <v>43883</v>
+      </c>
+      <c r="B55" t="s">
+        <v>101</v>
+      </c>
+      <c r="C55" t="s">
+        <v>102</v>
+      </c>
+      <c r="D55" t="s">
+        <v>82</v>
+      </c>
+      <c r="E55" s="23" t="s">
+        <v>83</v>
+      </c>
+      <c r="F55" t="s">
+        <v>83</v>
+      </c>
+      <c r="G55">
+        <v>999</v>
+      </c>
+      <c r="H55" s="1">
+        <v>36526</v>
+      </c>
+      <c r="I55">
+        <v>2</v>
+      </c>
+      <c r="J55">
+        <v>0.28999999999999998</v>
+      </c>
+      <c r="K55">
+        <v>26</v>
+      </c>
+      <c r="L55">
+        <v>31</v>
+      </c>
+      <c r="M55">
+        <v>-5</v>
+      </c>
+      <c r="N55" t="s">
+        <v>94</v>
+      </c>
+      <c r="O55">
+        <v>45</v>
+      </c>
+      <c r="P55">
+        <v>45</v>
+      </c>
+      <c r="Q55" s="22">
+        <f t="shared" si="0"/>
+        <v>0.75</v>
+      </c>
+    </row>
+    <row r="56" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A56" s="1">
+        <v>43883</v>
+      </c>
+      <c r="B56" t="s">
+        <v>101</v>
+      </c>
+      <c r="C56" t="s">
+        <v>102</v>
+      </c>
+      <c r="D56" t="s">
+        <v>74</v>
+      </c>
+      <c r="E56" s="23" t="s">
+        <v>57</v>
+      </c>
+      <c r="F56" t="s">
+        <v>6</v>
+      </c>
+      <c r="G56">
+        <v>113</v>
+      </c>
+      <c r="H56" s="1">
+        <v>33056</v>
+      </c>
+      <c r="I56">
+        <v>1</v>
+      </c>
+      <c r="J56">
+        <v>0.14000000000000001</v>
+      </c>
+      <c r="K56">
+        <v>17</v>
+      </c>
+      <c r="L56">
+        <v>33</v>
+      </c>
+      <c r="M56">
+        <v>-16</v>
+      </c>
+      <c r="N56" t="s">
+        <v>95</v>
+      </c>
+      <c r="O56">
+        <v>58</v>
+      </c>
+      <c r="P56">
+        <v>58</v>
+      </c>
+      <c r="Q56" s="22">
+        <f t="shared" si="0"/>
+        <v>0.96666666666666667</v>
+      </c>
+    </row>
+    <row r="57" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A57" s="1">
+        <v>43883</v>
+      </c>
+      <c r="B57" t="s">
+        <v>101</v>
+      </c>
+      <c r="C57" t="s">
+        <v>102</v>
+      </c>
+      <c r="D57" t="s">
+        <v>75</v>
+      </c>
+      <c r="E57" t="s">
+        <v>76</v>
+      </c>
+      <c r="F57" t="s">
+        <v>6</v>
+      </c>
+      <c r="G57">
+        <v>45</v>
+      </c>
+      <c r="H57" s="1">
+        <v>34058</v>
+      </c>
+      <c r="I57">
+        <v>3</v>
+      </c>
+      <c r="J57">
+        <v>0.43</v>
+      </c>
+      <c r="K57">
+        <v>26</v>
+      </c>
+      <c r="L57">
+        <v>28</v>
+      </c>
+      <c r="M57">
+        <v>-2</v>
+      </c>
+      <c r="N57" t="s">
+        <v>94</v>
+      </c>
+      <c r="O57">
+        <v>35</v>
+      </c>
+      <c r="P57">
+        <v>40</v>
+      </c>
+      <c r="Q57" s="22">
+        <f t="shared" si="0"/>
+        <v>0.66666666666666663</v>
+      </c>
+    </row>
+    <row r="58" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A58" s="1">
+        <v>43883</v>
+      </c>
+      <c r="B58" t="s">
+        <v>101</v>
+      </c>
+      <c r="C58" t="s">
+        <v>102</v>
+      </c>
+      <c r="D58" t="s">
+        <v>77</v>
+      </c>
+      <c r="E58" t="s">
+        <v>12</v>
+      </c>
+      <c r="F58" t="s">
+        <v>6</v>
+      </c>
+      <c r="G58">
+        <v>66</v>
+      </c>
+      <c r="H58" s="1">
+        <v>22885</v>
+      </c>
+      <c r="I58">
+        <v>1</v>
+      </c>
+      <c r="J58">
+        <v>0.17</v>
+      </c>
+      <c r="K58">
+        <v>17</v>
+      </c>
+      <c r="L58">
+        <v>29</v>
+      </c>
+      <c r="M58">
+        <v>-12</v>
+      </c>
+      <c r="N58" t="s">
+        <v>95</v>
+      </c>
+      <c r="O58">
+        <v>52</v>
+      </c>
+      <c r="P58">
+        <v>52</v>
+      </c>
+      <c r="Q58" s="22">
+        <f t="shared" si="0"/>
+        <v>0.8666666666666667</v>
+      </c>
+    </row>
+    <row r="59" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A59" s="1">
+        <v>43883</v>
+      </c>
+      <c r="B59" t="s">
+        <v>101</v>
+      </c>
+      <c r="C59" t="s">
+        <v>102</v>
+      </c>
+      <c r="D59" t="s">
+        <v>78</v>
+      </c>
+      <c r="E59" t="s">
+        <v>29</v>
+      </c>
+      <c r="F59" t="s">
+        <v>6</v>
+      </c>
+      <c r="G59">
+        <v>98</v>
+      </c>
+      <c r="H59" s="1">
+        <v>37520</v>
+      </c>
+      <c r="I59">
+        <v>3</v>
+      </c>
+      <c r="J59">
+        <v>0.5</v>
+      </c>
+      <c r="K59">
+        <v>24</v>
+      </c>
+      <c r="L59">
+        <v>25</v>
+      </c>
+      <c r="M59">
+        <v>-1</v>
+      </c>
+      <c r="N59" t="s">
+        <v>94</v>
+      </c>
+      <c r="O59">
+        <v>31</v>
+      </c>
+      <c r="P59">
+        <v>27</v>
+      </c>
+      <c r="Q59" s="22">
+        <f t="shared" si="0"/>
+        <v>0.45</v>
+      </c>
+    </row>
+    <row r="60" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A60" s="1">
+        <v>43883</v>
+      </c>
+      <c r="B60" t="s">
+        <v>101</v>
+      </c>
+      <c r="C60" t="s">
+        <v>102</v>
+      </c>
+      <c r="D60" t="s">
+        <v>79</v>
+      </c>
+      <c r="E60" t="s">
+        <v>5</v>
+      </c>
+      <c r="F60" t="s">
+        <v>6</v>
+      </c>
+      <c r="G60">
+        <v>62</v>
+      </c>
+      <c r="H60" s="1">
+        <v>36853</v>
+      </c>
+      <c r="I60">
+        <v>2</v>
+      </c>
+      <c r="J60">
+        <v>0.28999999999999998</v>
+      </c>
+      <c r="K60">
+        <v>24</v>
+      </c>
+      <c r="L60">
+        <v>28</v>
+      </c>
+      <c r="M60">
+        <v>-4</v>
+      </c>
+      <c r="N60" t="s">
+        <v>94</v>
+      </c>
+      <c r="O60">
+        <v>44</v>
+      </c>
+      <c r="P60">
+        <v>44</v>
+      </c>
+      <c r="Q60" s="22">
+        <f t="shared" si="0"/>
+        <v>0.73333333333333328</v>
+      </c>
+    </row>
+    <row r="61" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A61" s="1">
+        <v>43883</v>
+      </c>
+      <c r="B61" t="s">
+        <v>101</v>
+      </c>
+      <c r="C61" t="s">
+        <v>102</v>
+      </c>
+      <c r="D61" t="s">
+        <v>80</v>
+      </c>
+      <c r="E61" t="s">
+        <v>41</v>
+      </c>
+      <c r="F61" t="s">
+        <v>6</v>
+      </c>
+      <c r="G61">
+        <v>999</v>
+      </c>
+      <c r="H61" s="1">
+        <v>35065</v>
+      </c>
+      <c r="I61">
+        <v>2</v>
+      </c>
+      <c r="J61">
+        <v>0.28999999999999998</v>
+      </c>
+      <c r="K61">
+        <v>21</v>
+      </c>
+      <c r="L61">
+        <v>28</v>
+      </c>
+      <c r="M61">
+        <v>-7</v>
+      </c>
+      <c r="N61" t="s">
+        <v>94</v>
+      </c>
+      <c r="O61">
+        <v>46</v>
+      </c>
+      <c r="P61">
+        <v>46</v>
+      </c>
+      <c r="Q61" s="22">
+        <f t="shared" si="0"/>
+        <v>0.76666666666666672</v>
+      </c>
+    </row>
+    <row r="62" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A62" s="1">
+        <v>43883</v>
+      </c>
+      <c r="B62" t="s">
+        <v>101</v>
+      </c>
+      <c r="C62" t="s">
+        <v>102</v>
+      </c>
+      <c r="D62" t="s">
+        <v>81</v>
+      </c>
+      <c r="E62" t="s">
+        <v>10</v>
+      </c>
+      <c r="F62" t="s">
+        <v>6</v>
+      </c>
+      <c r="G62">
+        <v>35</v>
+      </c>
+      <c r="H62" s="1">
+        <v>37393</v>
+      </c>
+      <c r="I62">
+        <v>4</v>
+      </c>
+      <c r="J62">
+        <v>0.56999999999999995</v>
+      </c>
+      <c r="K62">
+        <v>29</v>
+      </c>
+      <c r="L62">
+        <v>20</v>
+      </c>
+      <c r="M62">
+        <v>9</v>
+      </c>
+      <c r="N62" t="s">
+        <v>94</v>
+      </c>
+      <c r="O62">
+        <v>21</v>
+      </c>
+      <c r="P62">
+        <v>22</v>
+      </c>
+      <c r="Q62" s="22">
+        <f t="shared" si="0"/>
+        <v>0.36666666666666664</v>
+      </c>
+    </row>
+    <row r="64" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="J64" s="1"/>
+    </row>
+  </sheetData>
+  <autoFilter ref="A1:Q1" xr:uid="{11710554-39A1-47AD-8635-0E796AE8035B}"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:F62"/>
   <sheetViews>
-    <sheetView topLeftCell="A45" workbookViewId="0">
-      <selection activeCell="B51" sqref="B51:C51"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F1" sqref="B1:F1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -2116,12 +5496,12 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8EF21137-9538-493F-9018-B15907AA0781}">
   <dimension ref="A1:M64"/>
   <sheetViews>
-    <sheetView topLeftCell="A40" workbookViewId="0">
-      <selection activeCell="E56" sqref="E56"/>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:A1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -2174,31 +5554,31 @@
     </row>
     <row r="2" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A2">
-        <v>1</v>
+        <v>16</v>
       </c>
       <c r="B2" t="s">
-        <v>60</v>
+        <v>4</v>
       </c>
       <c r="C2" t="s">
-        <v>12</v>
+        <v>5</v>
       </c>
       <c r="D2" t="s">
         <v>6</v>
       </c>
       <c r="E2">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="F2">
-        <v>1</v>
+        <v>0.71</v>
       </c>
       <c r="G2">
-        <v>35</v>
+        <v>30</v>
       </c>
       <c r="H2">
-        <v>15</v>
+        <v>25</v>
       </c>
       <c r="I2">
-        <v>20</v>
+        <v>5</v>
       </c>
       <c r="J2" t="s">
         <v>94</v>
@@ -2215,31 +5595,31 @@
     </row>
     <row r="3" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A3">
-        <v>2</v>
+        <v>17</v>
       </c>
       <c r="B3" t="s">
-        <v>22</v>
+        <v>7</v>
       </c>
       <c r="C3" t="s">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="D3" t="s">
         <v>6</v>
       </c>
       <c r="E3">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="F3">
-        <v>1</v>
+        <v>0.71</v>
       </c>
       <c r="G3">
-        <v>35</v>
+        <v>28</v>
       </c>
       <c r="H3">
-        <v>17</v>
+        <v>23</v>
       </c>
       <c r="I3">
-        <v>18</v>
+        <v>5</v>
       </c>
       <c r="J3" t="s">
         <v>94</v>
@@ -2256,34 +5636,34 @@
     </row>
     <row r="4" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A4">
-        <v>3</v>
+        <v>50</v>
       </c>
       <c r="B4" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="C4" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="D4" t="s">
         <v>6</v>
       </c>
       <c r="E4">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="F4">
-        <v>1</v>
+        <v>0.17</v>
       </c>
       <c r="G4">
-        <v>30</v>
+        <v>18</v>
       </c>
       <c r="H4">
-        <v>15</v>
+        <v>28</v>
       </c>
       <c r="I4">
-        <v>15</v>
+        <v>-10</v>
       </c>
       <c r="J4" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="K4" s="1">
         <v>43883</v>
@@ -2297,13 +5677,13 @@
     </row>
     <row r="5" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A5">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B5" t="s">
-        <v>20</v>
+        <v>11</v>
       </c>
       <c r="C5" t="s">
-        <v>21</v>
+        <v>12</v>
       </c>
       <c r="D5" t="s">
         <v>6</v>
@@ -2312,16 +5692,16 @@
         <v>6</v>
       </c>
       <c r="F5">
-        <v>0.86</v>
+        <v>1</v>
       </c>
       <c r="G5">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="H5">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="I5">
-        <v>21</v>
+        <v>15</v>
       </c>
       <c r="J5" t="s">
         <v>94</v>
@@ -2338,31 +5718,31 @@
     </row>
     <row r="6" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A6">
-        <v>5</v>
+        <v>27</v>
       </c>
       <c r="B6" t="s">
-        <v>32</v>
+        <v>13</v>
       </c>
       <c r="C6" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="D6" t="s">
         <v>6</v>
       </c>
       <c r="E6">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="F6">
-        <v>0.86</v>
+        <v>0.5</v>
       </c>
       <c r="G6">
-        <v>33</v>
+        <v>26</v>
       </c>
       <c r="H6">
-        <v>14</v>
+        <v>21</v>
       </c>
       <c r="I6">
-        <v>19</v>
+        <v>5</v>
       </c>
       <c r="J6" t="s">
         <v>94</v>
@@ -2379,31 +5759,31 @@
     </row>
     <row r="7" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A7">
-        <v>6</v>
+        <v>27</v>
       </c>
       <c r="B7" t="s">
-        <v>26</v>
+        <v>15</v>
       </c>
       <c r="C7" t="s">
-        <v>10</v>
+        <v>16</v>
       </c>
       <c r="D7" t="s">
         <v>6</v>
       </c>
       <c r="E7">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="F7">
-        <v>0.86</v>
+        <v>0.5</v>
       </c>
       <c r="G7">
-        <v>32</v>
+        <v>26</v>
       </c>
       <c r="H7">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="I7">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="J7" t="s">
         <v>94</v>
@@ -2420,31 +5800,31 @@
     </row>
     <row r="8" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A8">
-        <v>7</v>
+        <v>49</v>
       </c>
       <c r="B8" t="s">
-        <v>42</v>
+        <v>17</v>
       </c>
       <c r="C8" t="s">
-        <v>29</v>
+        <v>18</v>
       </c>
       <c r="D8" t="s">
         <v>6</v>
       </c>
       <c r="E8">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="F8">
-        <v>0.83</v>
+        <v>0.17</v>
       </c>
       <c r="G8">
-        <v>27</v>
+        <v>19</v>
       </c>
       <c r="H8">
-        <v>11</v>
+        <v>29</v>
       </c>
       <c r="I8">
-        <v>16</v>
+        <v>-10</v>
       </c>
       <c r="J8" t="s">
         <v>94</v>
@@ -2461,10 +5841,10 @@
     </row>
     <row r="9" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A9">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="B9" t="s">
-        <v>27</v>
+        <v>19</v>
       </c>
       <c r="C9" t="s">
         <v>12</v>
@@ -2479,13 +5859,13 @@
         <v>0.83</v>
       </c>
       <c r="G9">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="H9">
-        <v>12</v>
+        <v>17</v>
       </c>
       <c r="I9">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="J9" t="s">
         <v>94</v>
@@ -2502,31 +5882,31 @@
     </row>
     <row r="10" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A10">
-        <v>9</v>
+        <v>4</v>
       </c>
       <c r="B10" t="s">
-        <v>58</v>
+        <v>20</v>
       </c>
       <c r="C10" t="s">
-        <v>12</v>
+        <v>21</v>
       </c>
       <c r="D10" t="s">
         <v>6</v>
       </c>
       <c r="E10">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="F10">
-        <v>0.83</v>
+        <v>0.86</v>
       </c>
       <c r="G10">
-        <v>28</v>
+        <v>33</v>
       </c>
       <c r="H10">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="I10">
-        <v>13</v>
+        <v>21</v>
       </c>
       <c r="J10" t="s">
         <v>94</v>
@@ -2543,31 +5923,31 @@
     </row>
     <row r="11" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A11">
-        <v>9</v>
+        <v>2</v>
       </c>
       <c r="B11" t="s">
-        <v>62</v>
+        <v>22</v>
       </c>
       <c r="C11" t="s">
-        <v>47</v>
+        <v>12</v>
       </c>
       <c r="D11" t="s">
         <v>6</v>
       </c>
       <c r="E11">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="F11">
-        <v>0.83</v>
+        <v>1</v>
       </c>
       <c r="G11">
-        <v>28</v>
+        <v>35</v>
       </c>
       <c r="H11">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="I11">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="J11" t="s">
         <v>94</v>
@@ -2584,31 +5964,31 @@
     </row>
     <row r="12" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A12">
-        <v>11</v>
+        <v>40</v>
       </c>
       <c r="B12" t="s">
-        <v>19</v>
+        <v>23</v>
       </c>
       <c r="C12" t="s">
-        <v>12</v>
+        <v>24</v>
       </c>
       <c r="D12" t="s">
         <v>6</v>
       </c>
       <c r="E12">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="F12">
-        <v>0.83</v>
+        <v>0.43</v>
       </c>
       <c r="G12">
-        <v>29</v>
+        <v>20</v>
       </c>
       <c r="H12">
-        <v>17</v>
+        <v>30</v>
       </c>
       <c r="I12">
-        <v>12</v>
+        <v>-10</v>
       </c>
       <c r="J12" t="s">
         <v>94</v>
@@ -2625,13 +6005,13 @@
     </row>
     <row r="13" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A13">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="B13" t="s">
-        <v>66</v>
+        <v>25</v>
       </c>
       <c r="C13" t="s">
-        <v>29</v>
+        <v>12</v>
       </c>
       <c r="D13" t="s">
         <v>6</v>
@@ -2643,13 +6023,13 @@
         <v>0.83</v>
       </c>
       <c r="G13">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="H13">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="I13">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="J13" t="s">
         <v>94</v>
@@ -2666,31 +6046,31 @@
     </row>
     <row r="14" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A14">
-        <v>13</v>
+        <v>6</v>
       </c>
       <c r="B14" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C14" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="D14" t="s">
         <v>6</v>
       </c>
       <c r="E14">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="F14">
-        <v>0.83</v>
+        <v>0.86</v>
       </c>
       <c r="G14">
-        <v>26</v>
+        <v>32</v>
       </c>
       <c r="H14">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="I14">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="J14" t="s">
         <v>94</v>
@@ -2707,13 +6087,13 @@
     </row>
     <row r="15" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A15">
-        <v>14</v>
+        <v>8</v>
       </c>
       <c r="B15" t="s">
-        <v>43</v>
+        <v>27</v>
       </c>
       <c r="C15" t="s">
-        <v>29</v>
+        <v>12</v>
       </c>
       <c r="D15" t="s">
         <v>6</v>
@@ -2722,16 +6102,16 @@
         <v>5</v>
       </c>
       <c r="F15">
-        <v>0.71</v>
+        <v>0.83</v>
       </c>
       <c r="G15">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="H15">
-        <v>20</v>
+        <v>12</v>
       </c>
       <c r="I15">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="J15" t="s">
         <v>94</v>
@@ -2748,31 +6128,31 @@
     </row>
     <row r="16" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A16">
-        <v>15</v>
+        <v>22</v>
       </c>
       <c r="B16" t="s">
-        <v>45</v>
+        <v>28</v>
       </c>
       <c r="C16" t="s">
-        <v>10</v>
+        <v>29</v>
       </c>
       <c r="D16" t="s">
         <v>6</v>
       </c>
       <c r="E16">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="F16">
-        <v>0.71</v>
+        <v>0.56999999999999995</v>
       </c>
       <c r="G16">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="H16">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="I16">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="J16" t="s">
         <v>94</v>
@@ -2789,31 +6169,31 @@
     </row>
     <row r="17" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A17">
-        <v>16</v>
+        <v>33</v>
       </c>
       <c r="B17" t="s">
-        <v>4</v>
+        <v>30</v>
       </c>
       <c r="C17" t="s">
-        <v>5</v>
+        <v>31</v>
       </c>
       <c r="D17" t="s">
         <v>6</v>
       </c>
       <c r="E17">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="F17">
-        <v>0.71</v>
+        <v>0.5</v>
       </c>
       <c r="G17">
-        <v>30</v>
+        <v>15</v>
       </c>
       <c r="H17">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="I17">
-        <v>5</v>
+        <v>-12</v>
       </c>
       <c r="J17" t="s">
         <v>94</v>
@@ -2830,31 +6210,31 @@
     </row>
     <row r="18" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A18">
-        <v>17</v>
+        <v>5</v>
       </c>
       <c r="B18" t="s">
-        <v>7</v>
+        <v>32</v>
       </c>
       <c r="C18" t="s">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="D18" t="s">
         <v>6</v>
       </c>
       <c r="E18">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="F18">
-        <v>0.71</v>
+        <v>0.86</v>
       </c>
       <c r="G18">
-        <v>28</v>
+        <v>33</v>
       </c>
       <c r="H18">
-        <v>23</v>
+        <v>14</v>
       </c>
       <c r="I18">
-        <v>5</v>
+        <v>19</v>
       </c>
       <c r="J18" t="s">
         <v>94</v>
@@ -2871,31 +6251,31 @@
     </row>
     <row r="19" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A19">
-        <v>18</v>
+        <v>42</v>
       </c>
       <c r="B19" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="C19" t="s">
-        <v>29</v>
+        <v>14</v>
       </c>
       <c r="D19" t="s">
         <v>6</v>
       </c>
       <c r="E19">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="F19">
-        <v>0.67</v>
+        <v>0.33</v>
       </c>
       <c r="G19">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="H19">
-        <v>16</v>
+        <v>28</v>
       </c>
       <c r="I19">
-        <v>10</v>
+        <v>-4</v>
       </c>
       <c r="J19" t="s">
         <v>94</v>
@@ -2912,13 +6292,13 @@
     </row>
     <row r="20" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A20">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B20" t="s">
-        <v>72</v>
+        <v>34</v>
       </c>
       <c r="C20" t="s">
-        <v>14</v>
+        <v>29</v>
       </c>
       <c r="D20" t="s">
         <v>6</v>
@@ -2933,10 +6313,10 @@
         <v>26</v>
       </c>
       <c r="H20">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="I20">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="J20" t="s">
         <v>94</v>
@@ -2953,31 +6333,31 @@
     </row>
     <row r="21" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A21">
-        <v>20</v>
+        <v>38</v>
       </c>
       <c r="B21" t="s">
-        <v>55</v>
+        <v>84</v>
       </c>
       <c r="C21" t="s">
-        <v>29</v>
+        <v>85</v>
       </c>
       <c r="D21" t="s">
-        <v>6</v>
+        <v>86</v>
       </c>
       <c r="E21">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="F21">
-        <v>0.56999999999999995</v>
+        <v>0.43</v>
       </c>
       <c r="G21">
-        <v>30</v>
+        <v>22</v>
       </c>
       <c r="H21">
-        <v>19</v>
+        <v>28</v>
       </c>
       <c r="I21">
-        <v>11</v>
+        <v>-6</v>
       </c>
       <c r="J21" t="s">
         <v>94</v>
@@ -2994,13 +6374,13 @@
     </row>
     <row r="22" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A22">
-        <v>21</v>
+        <v>25</v>
       </c>
       <c r="B22" t="s">
-        <v>81</v>
+        <v>35</v>
       </c>
       <c r="C22" t="s">
-        <v>10</v>
+        <v>31</v>
       </c>
       <c r="D22" t="s">
         <v>6</v>
@@ -3015,10 +6395,10 @@
         <v>29</v>
       </c>
       <c r="H22">
-        <v>20</v>
+        <v>27</v>
       </c>
       <c r="I22">
-        <v>9</v>
+        <v>2</v>
       </c>
       <c r="J22" t="s">
         <v>94</v>
@@ -3035,31 +6415,31 @@
     </row>
     <row r="23" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A23">
-        <v>22</v>
+        <v>29</v>
       </c>
       <c r="B23" t="s">
-        <v>28</v>
+        <v>36</v>
       </c>
       <c r="C23" t="s">
-        <v>29</v>
+        <v>24</v>
       </c>
       <c r="D23" t="s">
         <v>6</v>
       </c>
       <c r="E23">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="F23">
-        <v>0.56999999999999995</v>
+        <v>0.5</v>
       </c>
       <c r="G23">
-        <v>30</v>
+        <v>23</v>
       </c>
       <c r="H23">
         <v>23</v>
       </c>
       <c r="I23">
-        <v>7</v>
+        <v>0</v>
       </c>
       <c r="J23" t="s">
         <v>94</v>
@@ -3076,31 +6456,31 @@
     </row>
     <row r="24" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A24">
-        <v>23</v>
+        <v>43</v>
       </c>
       <c r="B24" t="s">
-        <v>64</v>
+        <v>37</v>
       </c>
       <c r="C24" t="s">
-        <v>12</v>
+        <v>38</v>
       </c>
       <c r="D24" t="s">
         <v>6</v>
       </c>
       <c r="E24">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="F24">
-        <v>0.56999999999999995</v>
+        <v>0.33</v>
       </c>
       <c r="G24">
-        <v>28</v>
+        <v>19</v>
       </c>
       <c r="H24">
-        <v>21</v>
+        <v>27</v>
       </c>
       <c r="I24">
-        <v>7</v>
+        <v>-8</v>
       </c>
       <c r="J24" t="s">
         <v>94</v>
@@ -3117,31 +6497,31 @@
     </row>
     <row r="25" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A25">
-        <v>24</v>
+        <v>32</v>
       </c>
       <c r="B25" t="s">
-        <v>68</v>
+        <v>39</v>
       </c>
       <c r="C25" t="s">
-        <v>14</v>
+        <v>38</v>
       </c>
       <c r="D25" t="s">
         <v>6</v>
       </c>
       <c r="E25">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="F25">
-        <v>0.56999999999999995</v>
+        <v>0.5</v>
       </c>
       <c r="G25">
-        <v>29</v>
+        <v>19</v>
       </c>
       <c r="H25">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="I25">
-        <v>3</v>
+        <v>-3</v>
       </c>
       <c r="J25" t="s">
         <v>94</v>
@@ -3158,34 +6538,34 @@
     </row>
     <row r="26" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A26">
-        <v>25</v>
+        <v>57</v>
       </c>
       <c r="B26" t="s">
-        <v>35</v>
+        <v>40</v>
       </c>
       <c r="C26" t="s">
-        <v>31</v>
+        <v>41</v>
       </c>
       <c r="D26" t="s">
         <v>6</v>
       </c>
       <c r="E26">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="F26">
-        <v>0.56999999999999995</v>
+        <v>0.14000000000000001</v>
       </c>
       <c r="G26">
-        <v>29</v>
+        <v>20</v>
       </c>
       <c r="H26">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="I26">
-        <v>2</v>
+        <v>-10</v>
       </c>
       <c r="J26" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="K26" s="1">
         <v>43883</v>
@@ -3199,31 +6579,31 @@
     </row>
     <row r="27" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A27">
-        <v>26</v>
+        <v>7</v>
       </c>
       <c r="B27" t="s">
-        <v>49</v>
+        <v>42</v>
       </c>
       <c r="C27" t="s">
-        <v>12</v>
+        <v>29</v>
       </c>
       <c r="D27" t="s">
         <v>6</v>
       </c>
       <c r="E27">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="F27">
-        <v>0.56999999999999995</v>
+        <v>0.83</v>
       </c>
       <c r="G27">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="H27">
-        <v>27</v>
+        <v>11</v>
       </c>
       <c r="I27">
-        <v>1</v>
+        <v>16</v>
       </c>
       <c r="J27" t="s">
         <v>94</v>
@@ -3240,31 +6620,31 @@
     </row>
     <row r="28" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A28">
-        <v>27</v>
+        <v>14</v>
       </c>
       <c r="B28" t="s">
-        <v>15</v>
+        <v>43</v>
       </c>
       <c r="C28" t="s">
-        <v>16</v>
+        <v>29</v>
       </c>
       <c r="D28" t="s">
         <v>6</v>
       </c>
       <c r="E28">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="F28">
-        <v>0.5</v>
+        <v>0.71</v>
       </c>
       <c r="G28">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="H28">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="I28">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="J28" t="s">
         <v>94</v>
@@ -3281,13 +6661,13 @@
     </row>
     <row r="29" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A29">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="B29" t="s">
-        <v>13</v>
+        <v>44</v>
       </c>
       <c r="C29" t="s">
-        <v>14</v>
+        <v>24</v>
       </c>
       <c r="D29" t="s">
         <v>6</v>
@@ -3299,13 +6679,13 @@
         <v>0.5</v>
       </c>
       <c r="G29">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="H29">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="I29">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="J29" t="s">
         <v>94</v>
@@ -3322,31 +6702,31 @@
     </row>
     <row r="30" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A30">
-        <v>29</v>
+        <v>15</v>
       </c>
       <c r="B30" t="s">
-        <v>36</v>
+        <v>45</v>
       </c>
       <c r="C30" t="s">
-        <v>24</v>
+        <v>10</v>
       </c>
       <c r="D30" t="s">
         <v>6</v>
       </c>
       <c r="E30">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="F30">
-        <v>0.5</v>
+        <v>0.71</v>
       </c>
       <c r="G30">
-        <v>23</v>
+        <v>32</v>
       </c>
       <c r="H30">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="I30">
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="J30" t="s">
         <v>94</v>
@@ -3363,31 +6743,31 @@
     </row>
     <row r="31" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A31">
-        <v>30</v>
+        <v>41</v>
       </c>
       <c r="B31" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="C31" t="s">
-        <v>24</v>
+        <v>47</v>
       </c>
       <c r="D31" t="s">
         <v>6</v>
       </c>
       <c r="E31">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F31">
-        <v>0.5</v>
+        <v>0.33</v>
       </c>
       <c r="G31">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="H31">
-        <v>22</v>
+        <v>27</v>
       </c>
       <c r="I31">
-        <v>0</v>
+        <v>-2</v>
       </c>
       <c r="J31" t="s">
         <v>94</v>
@@ -3404,13 +6784,13 @@
     </row>
     <row r="32" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A32">
-        <v>31</v>
+        <v>37</v>
       </c>
       <c r="B32" t="s">
-        <v>78</v>
+        <v>48</v>
       </c>
       <c r="C32" t="s">
-        <v>29</v>
+        <v>14</v>
       </c>
       <c r="D32" t="s">
         <v>6</v>
@@ -3419,16 +6799,16 @@
         <v>3</v>
       </c>
       <c r="F32">
-        <v>0.5</v>
+        <v>0.43</v>
       </c>
       <c r="G32">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="H32">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="I32">
-        <v>-1</v>
+        <v>-5</v>
       </c>
       <c r="J32" t="s">
         <v>94</v>
@@ -3445,31 +6825,31 @@
     </row>
     <row r="33" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A33">
-        <v>32</v>
+        <v>26</v>
       </c>
       <c r="B33" t="s">
-        <v>39</v>
+        <v>49</v>
       </c>
       <c r="C33" t="s">
-        <v>38</v>
+        <v>12</v>
       </c>
       <c r="D33" t="s">
         <v>6</v>
       </c>
       <c r="E33">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="F33">
-        <v>0.5</v>
+        <v>0.56999999999999995</v>
       </c>
       <c r="G33">
-        <v>19</v>
+        <v>28</v>
       </c>
       <c r="H33">
-        <v>22</v>
+        <v>27</v>
       </c>
       <c r="I33">
-        <v>-3</v>
+        <v>1</v>
       </c>
       <c r="J33" t="s">
         <v>94</v>
@@ -3486,31 +6866,31 @@
     </row>
     <row r="34" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A34">
-        <v>33</v>
+        <v>47</v>
       </c>
       <c r="B34" t="s">
-        <v>30</v>
+        <v>50</v>
       </c>
       <c r="C34" t="s">
-        <v>31</v>
+        <v>41</v>
       </c>
       <c r="D34" t="s">
         <v>6</v>
       </c>
       <c r="E34">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F34">
-        <v>0.5</v>
+        <v>0.28999999999999998</v>
       </c>
       <c r="G34">
-        <v>15</v>
+        <v>25</v>
       </c>
       <c r="H34">
-        <v>27</v>
+        <v>33</v>
       </c>
       <c r="I34">
-        <v>-12</v>
+        <v>-8</v>
       </c>
       <c r="J34" t="s">
         <v>94</v>
@@ -3527,34 +6907,34 @@
     </row>
     <row r="35" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A35">
-        <v>34</v>
+        <v>59</v>
       </c>
       <c r="B35" t="s">
-        <v>69</v>
+        <v>51</v>
       </c>
       <c r="C35" t="s">
-        <v>29</v>
+        <v>18</v>
       </c>
       <c r="D35" t="s">
         <v>6</v>
       </c>
       <c r="E35">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="F35">
-        <v>0.43</v>
+        <v>0</v>
       </c>
       <c r="G35">
-        <v>28</v>
+        <v>5</v>
       </c>
       <c r="H35">
-        <v>28</v>
+        <v>35</v>
       </c>
       <c r="I35">
-        <v>0</v>
+        <v>-30</v>
       </c>
       <c r="J35" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="K35" s="1">
         <v>43883</v>
@@ -3568,34 +6948,34 @@
     </row>
     <row r="36" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A36">
-        <v>35</v>
+        <v>51</v>
       </c>
       <c r="B36" t="s">
-        <v>75</v>
+        <v>52</v>
       </c>
       <c r="C36" t="s">
-        <v>76</v>
+        <v>10</v>
       </c>
       <c r="D36" t="s">
         <v>6</v>
       </c>
       <c r="E36">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F36">
-        <v>0.43</v>
+        <v>0.17</v>
       </c>
       <c r="G36">
-        <v>26</v>
+        <v>17</v>
       </c>
       <c r="H36">
         <v>28</v>
       </c>
       <c r="I36">
-        <v>-2</v>
+        <v>-11</v>
       </c>
       <c r="J36" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="K36" s="1">
         <v>43883</v>
@@ -3609,34 +6989,34 @@
     </row>
     <row r="37" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A37">
-        <v>36</v>
+        <v>52</v>
       </c>
       <c r="B37" t="s">
-        <v>63</v>
+        <v>53</v>
       </c>
       <c r="C37" t="s">
-        <v>12</v>
+        <v>54</v>
       </c>
       <c r="D37" t="s">
         <v>6</v>
       </c>
       <c r="E37">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F37">
-        <v>0.43</v>
+        <v>0.17</v>
       </c>
       <c r="G37">
-        <v>26</v>
+        <v>17</v>
       </c>
       <c r="H37">
         <v>29</v>
       </c>
       <c r="I37">
-        <v>-3</v>
+        <v>-12</v>
       </c>
       <c r="J37" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="K37" s="1">
         <v>43883</v>
@@ -3650,31 +7030,31 @@
     </row>
     <row r="38" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A38">
-        <v>37</v>
+        <v>20</v>
       </c>
       <c r="B38" t="s">
-        <v>48</v>
+        <v>55</v>
       </c>
       <c r="C38" t="s">
-        <v>14</v>
+        <v>29</v>
       </c>
       <c r="D38" t="s">
         <v>6</v>
       </c>
       <c r="E38">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="F38">
-        <v>0.43</v>
+        <v>0.56999999999999995</v>
       </c>
       <c r="G38">
-        <v>23</v>
+        <v>30</v>
       </c>
       <c r="H38">
-        <v>28</v>
+        <v>19</v>
       </c>
       <c r="I38">
-        <v>-5</v>
+        <v>11</v>
       </c>
       <c r="J38" t="s">
         <v>94</v>
@@ -3690,35 +7070,35 @@
       </c>
     </row>
     <row r="39" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A39">
-        <v>38</v>
+      <c r="A39" s="5" t="s">
+        <v>104</v>
       </c>
       <c r="B39" t="s">
-        <v>84</v>
+        <v>56</v>
       </c>
       <c r="C39" t="s">
-        <v>85</v>
+        <v>57</v>
       </c>
       <c r="D39" t="s">
-        <v>86</v>
-      </c>
-      <c r="E39">
-        <v>3</v>
-      </c>
-      <c r="F39">
-        <v>0.43</v>
-      </c>
-      <c r="G39">
-        <v>22</v>
-      </c>
-      <c r="H39">
-        <v>28</v>
-      </c>
-      <c r="I39">
-        <v>-6</v>
-      </c>
-      <c r="J39" t="s">
-        <v>94</v>
+        <v>6</v>
+      </c>
+      <c r="E39" s="5" t="s">
+        <v>104</v>
+      </c>
+      <c r="F39" s="5" t="s">
+        <v>104</v>
+      </c>
+      <c r="G39" s="5" t="s">
+        <v>104</v>
+      </c>
+      <c r="H39" s="5" t="s">
+        <v>104</v>
+      </c>
+      <c r="I39" s="5" t="s">
+        <v>104</v>
+      </c>
+      <c r="J39" s="5" t="s">
+        <v>104</v>
       </c>
       <c r="K39" s="1">
         <v>43883</v>
@@ -3732,31 +7112,31 @@
     </row>
     <row r="40" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A40">
-        <v>39</v>
+        <v>9</v>
       </c>
       <c r="B40" t="s">
-        <v>65</v>
+        <v>58</v>
       </c>
       <c r="C40" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="D40" t="s">
         <v>6</v>
       </c>
       <c r="E40">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="F40">
-        <v>0.43</v>
+        <v>0.83</v>
       </c>
       <c r="G40">
-        <v>23</v>
+        <v>28</v>
       </c>
       <c r="H40">
-        <v>32</v>
+        <v>15</v>
       </c>
       <c r="I40">
-        <v>-9</v>
+        <v>13</v>
       </c>
       <c r="J40" t="s">
         <v>94</v>
@@ -3773,34 +7153,34 @@
     </row>
     <row r="41" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A41">
-        <v>40</v>
+        <v>55</v>
       </c>
       <c r="B41" t="s">
-        <v>23</v>
+        <v>59</v>
       </c>
       <c r="C41" t="s">
-        <v>24</v>
+        <v>29</v>
       </c>
       <c r="D41" t="s">
         <v>6</v>
       </c>
       <c r="E41">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F41">
-        <v>0.43</v>
+        <v>0.17</v>
       </c>
       <c r="G41">
-        <v>20</v>
+        <v>12</v>
       </c>
       <c r="H41">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="I41">
-        <v>-10</v>
+        <v>-17</v>
       </c>
       <c r="J41" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="K41" s="1">
         <v>43883</v>
@@ -3814,31 +7194,31 @@
     </row>
     <row r="42" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A42">
-        <v>41</v>
+        <v>1</v>
       </c>
       <c r="B42" t="s">
-        <v>46</v>
+        <v>60</v>
       </c>
       <c r="C42" t="s">
-        <v>47</v>
+        <v>12</v>
       </c>
       <c r="D42" t="s">
         <v>6</v>
       </c>
       <c r="E42">
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="F42">
-        <v>0.33</v>
+        <v>1</v>
       </c>
       <c r="G42">
-        <v>25</v>
+        <v>35</v>
       </c>
       <c r="H42">
-        <v>27</v>
+        <v>15</v>
       </c>
       <c r="I42">
-        <v>-2</v>
+        <v>20</v>
       </c>
       <c r="J42" t="s">
         <v>94</v>
@@ -3855,34 +7235,34 @@
     </row>
     <row r="43" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A43">
-        <v>42</v>
+        <v>54</v>
       </c>
       <c r="B43" t="s">
-        <v>33</v>
+        <v>61</v>
       </c>
       <c r="C43" t="s">
-        <v>14</v>
+        <v>5</v>
       </c>
       <c r="D43" t="s">
         <v>6</v>
       </c>
       <c r="E43">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F43">
-        <v>0.33</v>
+        <v>0.17</v>
       </c>
       <c r="G43">
-        <v>24</v>
+        <v>14</v>
       </c>
       <c r="H43">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="I43">
-        <v>-4</v>
+        <v>-13</v>
       </c>
       <c r="J43" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="K43" s="1">
         <v>43883</v>
@@ -3896,31 +7276,31 @@
     </row>
     <row r="44" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A44">
-        <v>43</v>
+        <v>9</v>
       </c>
       <c r="B44" t="s">
-        <v>37</v>
+        <v>62</v>
       </c>
       <c r="C44" t="s">
-        <v>38</v>
+        <v>47</v>
       </c>
       <c r="D44" t="s">
         <v>6</v>
       </c>
       <c r="E44">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="F44">
-        <v>0.33</v>
+        <v>0.83</v>
       </c>
       <c r="G44">
-        <v>19</v>
+        <v>28</v>
       </c>
       <c r="H44">
-        <v>27</v>
+        <v>15</v>
       </c>
       <c r="I44">
-        <v>-8</v>
+        <v>13</v>
       </c>
       <c r="J44" t="s">
         <v>94</v>
@@ -3937,31 +7317,31 @@
     </row>
     <row r="45" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A45">
-        <v>44</v>
+        <v>36</v>
       </c>
       <c r="B45" t="s">
-        <v>79</v>
+        <v>63</v>
       </c>
       <c r="C45" t="s">
-        <v>5</v>
+        <v>12</v>
       </c>
       <c r="D45" t="s">
         <v>6</v>
       </c>
       <c r="E45">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F45">
-        <v>0.28999999999999998</v>
+        <v>0.43</v>
       </c>
       <c r="G45">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="H45">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="I45">
-        <v>-4</v>
+        <v>-3</v>
       </c>
       <c r="J45" t="s">
         <v>94</v>
@@ -3978,31 +7358,31 @@
     </row>
     <row r="46" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A46">
-        <v>45</v>
+        <v>23</v>
       </c>
       <c r="B46" t="s">
-        <v>82</v>
-      </c>
-      <c r="C46" s="6" t="s">
-        <v>83</v>
+        <v>64</v>
+      </c>
+      <c r="C46" t="s">
+        <v>12</v>
       </c>
       <c r="D46" t="s">
-        <v>83</v>
+        <v>6</v>
       </c>
       <c r="E46">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="F46">
-        <v>0.28999999999999998</v>
+        <v>0.56999999999999995</v>
       </c>
       <c r="G46">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="H46">
-        <v>31</v>
+        <v>21</v>
       </c>
       <c r="I46">
-        <v>-5</v>
+        <v>7</v>
       </c>
       <c r="J46" t="s">
         <v>94</v>
@@ -4019,31 +7399,31 @@
     </row>
     <row r="47" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A47">
-        <v>46</v>
+        <v>39</v>
       </c>
       <c r="B47" t="s">
-        <v>80</v>
+        <v>65</v>
       </c>
       <c r="C47" t="s">
-        <v>41</v>
+        <v>14</v>
       </c>
       <c r="D47" t="s">
         <v>6</v>
       </c>
       <c r="E47">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F47">
-        <v>0.28999999999999998</v>
+        <v>0.43</v>
       </c>
       <c r="G47">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="H47">
-        <v>28</v>
+        <v>32</v>
       </c>
       <c r="I47">
-        <v>-7</v>
+        <v>-9</v>
       </c>
       <c r="J47" t="s">
         <v>94</v>
@@ -4060,31 +7440,31 @@
     </row>
     <row r="48" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A48">
-        <v>47</v>
+        <v>12</v>
       </c>
       <c r="B48" t="s">
-        <v>50</v>
+        <v>66</v>
       </c>
       <c r="C48" t="s">
-        <v>41</v>
+        <v>29</v>
       </c>
       <c r="D48" t="s">
         <v>6</v>
       </c>
       <c r="E48">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="F48">
-        <v>0.28999999999999998</v>
+        <v>0.83</v>
       </c>
       <c r="G48">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="H48">
-        <v>33</v>
+        <v>20</v>
       </c>
       <c r="I48">
-        <v>-8</v>
+        <v>7</v>
       </c>
       <c r="J48" t="s">
         <v>94</v>
@@ -4142,31 +7522,31 @@
     </row>
     <row r="50" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A50">
-        <v>49</v>
+        <v>24</v>
       </c>
       <c r="B50" t="s">
-        <v>17</v>
+        <v>68</v>
       </c>
       <c r="C50" t="s">
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="D50" t="s">
         <v>6</v>
       </c>
       <c r="E50">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="F50">
-        <v>0.17</v>
+        <v>0.56999999999999995</v>
       </c>
       <c r="G50">
-        <v>19</v>
+        <v>29</v>
       </c>
       <c r="H50">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="I50">
-        <v>-10</v>
+        <v>3</v>
       </c>
       <c r="J50" t="s">
         <v>94</v>
@@ -4183,34 +7563,34 @@
     </row>
     <row r="51" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A51">
-        <v>50</v>
+        <v>34</v>
       </c>
       <c r="B51" t="s">
-        <v>9</v>
+        <v>69</v>
       </c>
       <c r="C51" t="s">
-        <v>10</v>
+        <v>29</v>
       </c>
       <c r="D51" t="s">
         <v>6</v>
       </c>
       <c r="E51">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F51">
-        <v>0.17</v>
+        <v>0.43</v>
       </c>
       <c r="G51">
-        <v>18</v>
+        <v>28</v>
       </c>
       <c r="H51">
         <v>28</v>
       </c>
       <c r="I51">
-        <v>-10</v>
+        <v>0</v>
       </c>
       <c r="J51" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="K51" s="1">
         <v>43883</v>
@@ -4224,31 +7604,31 @@
     </row>
     <row r="52" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A52">
-        <v>51</v>
+        <v>60</v>
       </c>
       <c r="B52" t="s">
-        <v>52</v>
+        <v>70</v>
       </c>
       <c r="C52" t="s">
-        <v>10</v>
+        <v>71</v>
       </c>
       <c r="D52" t="s">
         <v>6</v>
       </c>
       <c r="E52">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F52">
-        <v>0.17</v>
+        <v>0</v>
       </c>
       <c r="G52">
-        <v>17</v>
+        <v>4</v>
       </c>
       <c r="H52">
-        <v>28</v>
+        <v>35</v>
       </c>
       <c r="I52">
-        <v>-11</v>
+        <v>-31</v>
       </c>
       <c r="J52" t="s">
         <v>95</v>
@@ -4265,34 +7645,34 @@
     </row>
     <row r="53" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A53">
-        <v>52</v>
+        <v>19</v>
       </c>
       <c r="B53" t="s">
-        <v>53</v>
+        <v>72</v>
       </c>
       <c r="C53" t="s">
-        <v>54</v>
+        <v>14</v>
       </c>
       <c r="D53" t="s">
         <v>6</v>
       </c>
       <c r="E53">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="F53">
-        <v>0.17</v>
+        <v>0.67</v>
       </c>
       <c r="G53">
-        <v>17</v>
+        <v>26</v>
       </c>
       <c r="H53">
-        <v>29</v>
+        <v>18</v>
       </c>
       <c r="I53">
-        <v>-12</v>
+        <v>8</v>
       </c>
       <c r="J53" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="K53" s="1">
         <v>43883</v>
@@ -4306,13 +7686,13 @@
     </row>
     <row r="54" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A54">
-        <v>52</v>
+        <v>56</v>
       </c>
       <c r="B54" t="s">
-        <v>77</v>
+        <v>73</v>
       </c>
       <c r="C54" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="D54" t="s">
         <v>6</v>
@@ -4321,16 +7701,16 @@
         <v>1</v>
       </c>
       <c r="F54">
-        <v>0.17</v>
+        <v>0.14000000000000001</v>
       </c>
       <c r="G54">
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="H54">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="I54">
-        <v>-12</v>
+        <v>-10</v>
       </c>
       <c r="J54" t="s">
         <v>95</v>
@@ -4347,34 +7727,34 @@
     </row>
     <row r="55" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A55">
-        <v>54</v>
+        <v>45</v>
       </c>
       <c r="B55" t="s">
-        <v>61</v>
-      </c>
-      <c r="C55" t="s">
-        <v>5</v>
+        <v>82</v>
+      </c>
+      <c r="C55" s="6" t="s">
+        <v>83</v>
       </c>
       <c r="D55" t="s">
-        <v>6</v>
+        <v>83</v>
       </c>
       <c r="E55">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F55">
-        <v>0.17</v>
+        <v>0.28999999999999998</v>
       </c>
       <c r="G55">
-        <v>14</v>
+        <v>26</v>
       </c>
       <c r="H55">
-        <v>27</v>
+        <v>31</v>
       </c>
       <c r="I55">
-        <v>-13</v>
+        <v>-5</v>
       </c>
       <c r="J55" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="K55" s="1">
         <v>43883</v>
@@ -4388,13 +7768,13 @@
     </row>
     <row r="56" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A56">
-        <v>55</v>
+        <v>58</v>
       </c>
       <c r="B56" t="s">
-        <v>59</v>
+        <v>74</v>
       </c>
       <c r="C56" t="s">
-        <v>29</v>
+        <v>57</v>
       </c>
       <c r="D56" t="s">
         <v>6</v>
@@ -4403,16 +7783,16 @@
         <v>1</v>
       </c>
       <c r="F56">
-        <v>0.17</v>
+        <v>0.14000000000000001</v>
       </c>
       <c r="G56">
-        <v>12</v>
+        <v>17</v>
       </c>
       <c r="H56">
-        <v>29</v>
+        <v>33</v>
       </c>
       <c r="I56">
-        <v>-17</v>
+        <v>-16</v>
       </c>
       <c r="J56" t="s">
         <v>95</v>
@@ -4429,34 +7809,34 @@
     </row>
     <row r="57" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A57">
-        <v>56</v>
+        <v>35</v>
       </c>
       <c r="B57" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="C57" t="s">
-        <v>14</v>
+        <v>76</v>
       </c>
       <c r="D57" t="s">
         <v>6</v>
       </c>
       <c r="E57">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F57">
-        <v>0.14000000000000001</v>
+        <v>0.43</v>
       </c>
       <c r="G57">
-        <v>21</v>
+        <v>26</v>
       </c>
       <c r="H57">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="I57">
-        <v>-10</v>
+        <v>-2</v>
       </c>
       <c r="J57" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="K57" s="1">
         <v>43883</v>
@@ -4470,13 +7850,13 @@
     </row>
     <row r="58" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A58">
-        <v>57</v>
+        <v>52</v>
       </c>
       <c r="B58" t="s">
-        <v>40</v>
+        <v>77</v>
       </c>
       <c r="C58" t="s">
-        <v>41</v>
+        <v>12</v>
       </c>
       <c r="D58" t="s">
         <v>6</v>
@@ -4485,16 +7865,16 @@
         <v>1</v>
       </c>
       <c r="F58">
-        <v>0.14000000000000001</v>
+        <v>0.17</v>
       </c>
       <c r="G58">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="H58">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="I58">
-        <v>-10</v>
+        <v>-12</v>
       </c>
       <c r="J58" t="s">
         <v>95</v>
@@ -4511,34 +7891,34 @@
     </row>
     <row r="59" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A59">
-        <v>58</v>
+        <v>31</v>
       </c>
       <c r="B59" t="s">
-        <v>74</v>
+        <v>78</v>
       </c>
       <c r="C59" t="s">
-        <v>57</v>
+        <v>29</v>
       </c>
       <c r="D59" t="s">
         <v>6</v>
       </c>
       <c r="E59">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F59">
-        <v>0.14000000000000001</v>
+        <v>0.5</v>
       </c>
       <c r="G59">
-        <v>17</v>
+        <v>24</v>
       </c>
       <c r="H59">
-        <v>33</v>
+        <v>25</v>
       </c>
       <c r="I59">
-        <v>-16</v>
+        <v>-1</v>
       </c>
       <c r="J59" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="K59" s="1">
         <v>43883</v>
@@ -4552,34 +7932,34 @@
     </row>
     <row r="60" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A60">
-        <v>59</v>
+        <v>44</v>
       </c>
       <c r="B60" t="s">
-        <v>51</v>
+        <v>79</v>
       </c>
       <c r="C60" t="s">
-        <v>18</v>
+        <v>5</v>
       </c>
       <c r="D60" t="s">
         <v>6</v>
       </c>
       <c r="E60">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="F60">
-        <v>0</v>
+        <v>0.28999999999999998</v>
       </c>
       <c r="G60">
-        <v>5</v>
+        <v>24</v>
       </c>
       <c r="H60">
-        <v>35</v>
+        <v>28</v>
       </c>
       <c r="I60">
-        <v>-30</v>
+        <v>-4</v>
       </c>
       <c r="J60" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="K60" s="1">
         <v>43883</v>
@@ -4593,34 +7973,34 @@
     </row>
     <row r="61" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A61">
-        <v>60</v>
+        <v>46</v>
       </c>
       <c r="B61" t="s">
-        <v>70</v>
+        <v>80</v>
       </c>
       <c r="C61" t="s">
-        <v>71</v>
+        <v>41</v>
       </c>
       <c r="D61" t="s">
         <v>6</v>
       </c>
       <c r="E61">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="F61">
-        <v>0</v>
+        <v>0.28999999999999998</v>
       </c>
       <c r="G61">
-        <v>4</v>
+        <v>21</v>
       </c>
       <c r="H61">
-        <v>35</v>
+        <v>28</v>
       </c>
       <c r="I61">
-        <v>-31</v>
+        <v>-7</v>
       </c>
       <c r="J61" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="K61" s="1">
         <v>43883</v>
@@ -4633,35 +8013,35 @@
       </c>
     </row>
     <row r="62" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A62" s="5" t="s">
-        <v>104</v>
+      <c r="A62">
+        <v>21</v>
       </c>
       <c r="B62" t="s">
-        <v>56</v>
+        <v>81</v>
       </c>
       <c r="C62" t="s">
-        <v>57</v>
+        <v>10</v>
       </c>
       <c r="D62" t="s">
         <v>6</v>
       </c>
-      <c r="E62" s="5" t="s">
-        <v>104</v>
-      </c>
-      <c r="F62" s="5" t="s">
-        <v>104</v>
-      </c>
-      <c r="G62" s="5" t="s">
-        <v>104</v>
-      </c>
-      <c r="H62" s="5" t="s">
-        <v>104</v>
-      </c>
-      <c r="I62" s="5" t="s">
-        <v>104</v>
-      </c>
-      <c r="J62" s="5" t="s">
-        <v>104</v>
+      <c r="E62">
+        <v>4</v>
+      </c>
+      <c r="F62">
+        <v>0.56999999999999995</v>
+      </c>
+      <c r="G62">
+        <v>29</v>
+      </c>
+      <c r="H62">
+        <v>20</v>
+      </c>
+      <c r="I62">
+        <v>9</v>
+      </c>
+      <c r="J62" t="s">
+        <v>94</v>
       </c>
       <c r="K62" s="1">
         <v>43883</v>
@@ -4677,19 +8057,23 @@
       <c r="F64" s="1"/>
     </row>
   </sheetData>
-  <autoFilter ref="A1:M1" xr:uid="{8EF21137-9538-493F-9018-B15907AA0781}"/>
+  <autoFilter ref="A1:M1" xr:uid="{8EF21137-9538-493F-9018-B15907AA0781}">
+    <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:M62">
+      <sortCondition ref="B1"/>
+    </sortState>
+  </autoFilter>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6BE8EC13-5CBE-4DC4-B9E2-75073FDF3DC9}">
   <dimension ref="A1:H62"/>
   <sheetViews>
-    <sheetView topLeftCell="A37" workbookViewId="0">
-      <selection activeCell="C49" sqref="C49"/>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:A1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -4728,19 +8112,19 @@
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A2">
-        <v>1</v>
+        <v>19</v>
       </c>
       <c r="B2" t="s">
-        <v>60</v>
+        <v>4</v>
       </c>
       <c r="C2" t="s">
-        <v>12</v>
+        <v>5</v>
       </c>
       <c r="D2" t="s">
         <v>6</v>
       </c>
       <c r="E2" s="1">
-        <v>33430</v>
+        <v>28313</v>
       </c>
       <c r="F2" s="1">
         <v>43883</v>
@@ -4754,19 +8138,19 @@
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A3">
-        <v>2</v>
+        <v>14</v>
       </c>
       <c r="B3" t="s">
-        <v>11</v>
+        <v>7</v>
       </c>
       <c r="C3" t="s">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="D3" t="s">
         <v>6</v>
       </c>
       <c r="E3" s="1">
-        <v>29969</v>
+        <v>36099</v>
       </c>
       <c r="F3" s="1">
         <v>43883</v>
@@ -4780,19 +8164,19 @@
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A4">
-        <v>3</v>
+        <v>50</v>
       </c>
       <c r="B4" t="s">
-        <v>20</v>
+        <v>9</v>
       </c>
       <c r="C4" t="s">
-        <v>21</v>
+        <v>10</v>
       </c>
       <c r="D4" t="s">
         <v>6</v>
       </c>
       <c r="E4" s="1">
-        <v>33595</v>
+        <v>37109</v>
       </c>
       <c r="F4" s="1">
         <v>43883</v>
@@ -4806,10 +8190,10 @@
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A5">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B5" t="s">
-        <v>22</v>
+        <v>11</v>
       </c>
       <c r="C5" t="s">
         <v>12</v>
@@ -4818,7 +8202,7 @@
         <v>6</v>
       </c>
       <c r="E5" s="1">
-        <v>35542</v>
+        <v>29969</v>
       </c>
       <c r="F5" s="1">
         <v>43883</v>
@@ -4832,19 +8216,19 @@
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A6">
-        <v>5</v>
+        <v>24</v>
       </c>
       <c r="B6" t="s">
-        <v>32</v>
+        <v>13</v>
       </c>
       <c r="C6" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="D6" t="s">
         <v>6</v>
       </c>
       <c r="E6" s="1">
-        <v>33673</v>
+        <v>35185</v>
       </c>
       <c r="F6" s="1">
         <v>43883</v>
@@ -4858,19 +8242,19 @@
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A7">
-        <v>6</v>
+        <v>37</v>
       </c>
       <c r="B7" t="s">
-        <v>58</v>
+        <v>15</v>
       </c>
       <c r="C7" t="s">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="D7" t="s">
         <v>6</v>
       </c>
       <c r="E7" s="1">
-        <v>36782</v>
+        <v>33038</v>
       </c>
       <c r="F7" s="1">
         <v>43883</v>
@@ -4884,19 +8268,19 @@
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A8">
-        <v>6</v>
+        <v>49</v>
       </c>
       <c r="B8" t="s">
-        <v>62</v>
+        <v>17</v>
       </c>
       <c r="C8" t="s">
-        <v>47</v>
+        <v>18</v>
       </c>
       <c r="D8" t="s">
         <v>6</v>
       </c>
       <c r="E8" s="1">
-        <v>35324</v>
+        <v>30117</v>
       </c>
       <c r="F8" s="1">
         <v>43883</v>
@@ -4936,19 +8320,19 @@
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A10">
-        <v>9</v>
+        <v>3</v>
       </c>
       <c r="B10" t="s">
-        <v>26</v>
+        <v>20</v>
       </c>
       <c r="C10" t="s">
-        <v>10</v>
+        <v>21</v>
       </c>
       <c r="D10" t="s">
         <v>6</v>
       </c>
       <c r="E10" s="1">
-        <v>34349</v>
+        <v>33595</v>
       </c>
       <c r="F10" s="1">
         <v>43883</v>
@@ -4962,19 +8346,19 @@
     </row>
     <row r="11" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A11">
-        <v>10</v>
+        <v>3</v>
       </c>
       <c r="B11" t="s">
-        <v>42</v>
+        <v>22</v>
       </c>
       <c r="C11" t="s">
-        <v>29</v>
+        <v>12</v>
       </c>
       <c r="D11" t="s">
         <v>6</v>
       </c>
       <c r="E11" s="1">
-        <v>36324</v>
+        <v>35542</v>
       </c>
       <c r="F11" s="1">
         <v>43883</v>
@@ -4988,19 +8372,19 @@
     </row>
     <row r="12" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A12">
-        <v>11</v>
+        <v>16</v>
       </c>
       <c r="B12" t="s">
-        <v>66</v>
+        <v>23</v>
       </c>
       <c r="C12" t="s">
-        <v>29</v>
+        <v>24</v>
       </c>
       <c r="D12" t="s">
         <v>6</v>
       </c>
       <c r="E12" s="1">
-        <v>36219</v>
+        <v>32654</v>
       </c>
       <c r="F12" s="1">
         <v>43883</v>
@@ -5014,19 +8398,19 @@
     </row>
     <row r="13" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A13">
-        <v>12</v>
+        <v>18</v>
       </c>
       <c r="B13" t="s">
-        <v>43</v>
+        <v>25</v>
       </c>
       <c r="C13" t="s">
-        <v>29</v>
+        <v>12</v>
       </c>
       <c r="D13" t="s">
         <v>6</v>
       </c>
       <c r="E13" s="1">
-        <v>35450</v>
+        <v>34315</v>
       </c>
       <c r="F13" s="1">
         <v>43883</v>
@@ -5040,10 +8424,10 @@
     </row>
     <row r="14" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A14">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="B14" t="s">
-        <v>45</v>
+        <v>26</v>
       </c>
       <c r="C14" t="s">
         <v>10</v>
@@ -5052,7 +8436,7 @@
         <v>6</v>
       </c>
       <c r="E14" s="1">
-        <v>29419</v>
+        <v>34349</v>
       </c>
       <c r="F14" s="1">
         <v>43883</v>
@@ -5066,19 +8450,19 @@
     </row>
     <row r="15" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A15">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="B15" t="s">
-        <v>7</v>
+        <v>27</v>
       </c>
       <c r="C15" t="s">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="D15" t="s">
         <v>6</v>
       </c>
       <c r="E15" s="1">
-        <v>36099</v>
+        <v>36046</v>
       </c>
       <c r="F15" s="1">
         <v>43883</v>
@@ -5092,10 +8476,10 @@
     </row>
     <row r="16" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A16">
-        <v>15</v>
+        <v>23</v>
       </c>
       <c r="B16" t="s">
-        <v>55</v>
+        <v>28</v>
       </c>
       <c r="C16" t="s">
         <v>29</v>
@@ -5104,7 +8488,7 @@
         <v>6</v>
       </c>
       <c r="E16" s="1">
-        <v>36821</v>
+        <v>31413</v>
       </c>
       <c r="F16" s="1">
         <v>43883</v>
@@ -5118,19 +8502,19 @@
     </row>
     <row r="17" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A17">
-        <v>16</v>
+        <v>38</v>
       </c>
       <c r="B17" t="s">
-        <v>23</v>
+        <v>30</v>
       </c>
       <c r="C17" t="s">
-        <v>24</v>
+        <v>31</v>
       </c>
       <c r="D17" t="s">
         <v>6</v>
       </c>
       <c r="E17" s="1">
-        <v>32654</v>
+        <v>33562</v>
       </c>
       <c r="F17" s="1">
         <v>43883</v>
@@ -5144,10 +8528,10 @@
     </row>
     <row r="18" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A18">
-        <v>17</v>
+        <v>5</v>
       </c>
       <c r="B18" t="s">
-        <v>27</v>
+        <v>32</v>
       </c>
       <c r="C18" t="s">
         <v>12</v>
@@ -5156,7 +8540,7 @@
         <v>6</v>
       </c>
       <c r="E18" s="1">
-        <v>36046</v>
+        <v>33673</v>
       </c>
       <c r="F18" s="1">
         <v>43883</v>
@@ -5170,19 +8554,19 @@
     </row>
     <row r="19" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A19">
-        <v>18</v>
+        <v>32</v>
       </c>
       <c r="B19" t="s">
-        <v>25</v>
+        <v>33</v>
       </c>
       <c r="C19" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="D19" t="s">
         <v>6</v>
       </c>
       <c r="E19" s="1">
-        <v>34315</v>
+        <v>21027</v>
       </c>
       <c r="F19" s="1">
         <v>43883</v>
@@ -5196,19 +8580,19 @@
     </row>
     <row r="20" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A20">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="B20" t="s">
-        <v>4</v>
+        <v>34</v>
       </c>
       <c r="C20" t="s">
-        <v>5</v>
+        <v>29</v>
       </c>
       <c r="D20" t="s">
         <v>6</v>
       </c>
       <c r="E20" s="1">
-        <v>28313</v>
+        <v>30503</v>
       </c>
       <c r="F20" s="1">
         <v>43883</v>
@@ -5222,19 +8606,19 @@
     </row>
     <row r="21" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A21">
-        <v>20</v>
+        <v>29</v>
       </c>
       <c r="B21" t="s">
-        <v>34</v>
+        <v>84</v>
       </c>
       <c r="C21" t="s">
-        <v>29</v>
+        <v>85</v>
       </c>
       <c r="D21" t="s">
-        <v>6</v>
+        <v>86</v>
       </c>
       <c r="E21" s="1">
-        <v>30503</v>
+        <v>31778</v>
       </c>
       <c r="F21" s="1">
         <v>43883</v>
@@ -5248,19 +8632,19 @@
     </row>
     <row r="22" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A22">
-        <v>21</v>
+        <v>35</v>
       </c>
       <c r="B22" t="s">
-        <v>72</v>
+        <v>35</v>
       </c>
       <c r="C22" t="s">
-        <v>14</v>
+        <v>31</v>
       </c>
       <c r="D22" t="s">
         <v>6</v>
       </c>
       <c r="E22" s="1">
-        <v>27427</v>
+        <v>36441</v>
       </c>
       <c r="F22" s="1">
         <v>43883</v>
@@ -5274,19 +8658,19 @@
     </row>
     <row r="23" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A23">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="B23" t="s">
-        <v>81</v>
+        <v>36</v>
       </c>
       <c r="C23" t="s">
-        <v>10</v>
+        <v>24</v>
       </c>
       <c r="D23" t="s">
         <v>6</v>
       </c>
       <c r="E23" s="1">
-        <v>37393</v>
+        <v>30843</v>
       </c>
       <c r="F23" s="1">
         <v>43883</v>
@@ -5300,19 +8684,19 @@
     </row>
     <row r="24" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A24">
-        <v>23</v>
+        <v>43</v>
       </c>
       <c r="B24" t="s">
-        <v>28</v>
+        <v>37</v>
       </c>
       <c r="C24" t="s">
-        <v>29</v>
+        <v>38</v>
       </c>
       <c r="D24" t="s">
         <v>6</v>
       </c>
       <c r="E24" s="1">
-        <v>31413</v>
+        <v>25022</v>
       </c>
       <c r="F24" s="1">
         <v>43883</v>
@@ -5326,19 +8710,19 @@
     </row>
     <row r="25" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A25">
-        <v>24</v>
+        <v>28</v>
       </c>
       <c r="B25" t="s">
-        <v>13</v>
+        <v>39</v>
       </c>
       <c r="C25" t="s">
-        <v>14</v>
+        <v>38</v>
       </c>
       <c r="D25" t="s">
         <v>6</v>
       </c>
       <c r="E25" s="1">
-        <v>35185</v>
+        <v>37523</v>
       </c>
       <c r="F25" s="1">
         <v>43883</v>
@@ -5352,19 +8736,19 @@
     </row>
     <row r="26" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A26">
-        <v>25</v>
+        <v>57</v>
       </c>
       <c r="B26" t="s">
-        <v>36</v>
+        <v>40</v>
       </c>
       <c r="C26" t="s">
-        <v>24</v>
+        <v>41</v>
       </c>
       <c r="D26" t="s">
         <v>6</v>
       </c>
       <c r="E26" s="1">
-        <v>30843</v>
+        <v>35065</v>
       </c>
       <c r="F26" s="1">
         <v>43883</v>
@@ -5378,19 +8762,19 @@
     </row>
     <row r="27" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A27">
-        <v>26</v>
+        <v>10</v>
       </c>
       <c r="B27" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="C27" t="s">
-        <v>24</v>
+        <v>29</v>
       </c>
       <c r="D27" t="s">
         <v>6</v>
       </c>
       <c r="E27" s="1">
-        <v>30784</v>
+        <v>36324</v>
       </c>
       <c r="F27" s="1">
         <v>43883</v>
@@ -5404,10 +8788,10 @@
     </row>
     <row r="28" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A28">
-        <v>27</v>
+        <v>12</v>
       </c>
       <c r="B28" t="s">
-        <v>78</v>
+        <v>43</v>
       </c>
       <c r="C28" t="s">
         <v>29</v>
@@ -5416,7 +8800,7 @@
         <v>6</v>
       </c>
       <c r="E28" s="1">
-        <v>37520</v>
+        <v>35450</v>
       </c>
       <c r="F28" s="1">
         <v>43883</v>
@@ -5430,19 +8814,19 @@
     </row>
     <row r="29" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A29">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="B29" t="s">
-        <v>39</v>
+        <v>44</v>
       </c>
       <c r="C29" t="s">
-        <v>38</v>
+        <v>24</v>
       </c>
       <c r="D29" t="s">
         <v>6</v>
       </c>
       <c r="E29" s="1">
-        <v>37523</v>
+        <v>30784</v>
       </c>
       <c r="F29" s="1">
         <v>43883</v>
@@ -5456,19 +8840,19 @@
     </row>
     <row r="30" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A30">
-        <v>29</v>
+        <v>13</v>
       </c>
       <c r="B30" t="s">
-        <v>84</v>
+        <v>45</v>
       </c>
       <c r="C30" t="s">
-        <v>85</v>
+        <v>10</v>
       </c>
       <c r="D30" t="s">
-        <v>86</v>
+        <v>6</v>
       </c>
       <c r="E30" s="1">
-        <v>31778</v>
+        <v>29419</v>
       </c>
       <c r="F30" s="1">
         <v>43883</v>
@@ -5482,19 +8866,19 @@
     </row>
     <row r="31" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A31">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="B31" t="s">
-        <v>65</v>
+        <v>46</v>
       </c>
       <c r="C31" t="s">
-        <v>14</v>
+        <v>47</v>
       </c>
       <c r="D31" t="s">
         <v>6</v>
       </c>
       <c r="E31" s="1">
-        <v>37028</v>
+        <v>33414</v>
       </c>
       <c r="F31" s="1">
         <v>43883</v>
@@ -5508,19 +8892,19 @@
     </row>
     <row r="32" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A32">
-        <v>31</v>
+        <v>42</v>
       </c>
       <c r="B32" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="C32" t="s">
-        <v>47</v>
+        <v>14</v>
       </c>
       <c r="D32" t="s">
         <v>6</v>
       </c>
       <c r="E32" s="1">
-        <v>33414</v>
+        <v>37115</v>
       </c>
       <c r="F32" s="1">
         <v>43883</v>
@@ -5534,19 +8918,19 @@
     </row>
     <row r="33" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A33">
-        <v>32</v>
+        <v>36</v>
       </c>
       <c r="B33" t="s">
-        <v>33</v>
+        <v>49</v>
       </c>
       <c r="C33" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="D33" t="s">
         <v>6</v>
       </c>
       <c r="E33" s="1">
-        <v>21027</v>
+        <v>34789</v>
       </c>
       <c r="F33" s="1">
         <v>43883</v>
@@ -5560,19 +8944,19 @@
     </row>
     <row r="34" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A34">
-        <v>33</v>
+        <v>47</v>
       </c>
       <c r="B34" t="s">
-        <v>64</v>
+        <v>50</v>
       </c>
       <c r="C34" t="s">
-        <v>12</v>
+        <v>41</v>
       </c>
       <c r="D34" t="s">
         <v>6</v>
       </c>
       <c r="E34" s="1">
-        <v>37101</v>
+        <v>30881</v>
       </c>
       <c r="F34" s="1">
         <v>43883</v>
@@ -5586,19 +8970,19 @@
     </row>
     <row r="35" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A35">
-        <v>34</v>
+        <v>59</v>
       </c>
       <c r="B35" t="s">
-        <v>68</v>
+        <v>51</v>
       </c>
       <c r="C35" t="s">
-        <v>14</v>
+        <v>18</v>
       </c>
       <c r="D35" t="s">
         <v>6</v>
       </c>
       <c r="E35" s="1">
-        <v>24724</v>
+        <v>35796</v>
       </c>
       <c r="F35" s="1">
         <v>43883</v>
@@ -5612,19 +8996,19 @@
     </row>
     <row r="36" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A36">
-        <v>35</v>
+        <v>51</v>
       </c>
       <c r="B36" t="s">
-        <v>35</v>
+        <v>52</v>
       </c>
       <c r="C36" t="s">
-        <v>31</v>
+        <v>10</v>
       </c>
       <c r="D36" t="s">
         <v>6</v>
       </c>
       <c r="E36" s="1">
-        <v>36441</v>
+        <v>33420</v>
       </c>
       <c r="F36" s="1">
         <v>43883</v>
@@ -5638,19 +9022,19 @@
     </row>
     <row r="37" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A37">
-        <v>36</v>
+        <v>52</v>
       </c>
       <c r="B37" t="s">
-        <v>49</v>
+        <v>53</v>
       </c>
       <c r="C37" t="s">
-        <v>12</v>
+        <v>54</v>
       </c>
       <c r="D37" t="s">
         <v>6</v>
       </c>
       <c r="E37" s="1">
-        <v>34789</v>
+        <v>34537</v>
       </c>
       <c r="F37" s="1">
         <v>43883</v>
@@ -5664,19 +9048,19 @@
     </row>
     <row r="38" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A38">
-        <v>37</v>
+        <v>15</v>
       </c>
       <c r="B38" t="s">
-        <v>15</v>
+        <v>55</v>
       </c>
       <c r="C38" t="s">
-        <v>16</v>
+        <v>29</v>
       </c>
       <c r="D38" t="s">
         <v>6</v>
       </c>
       <c r="E38" s="1">
-        <v>33038</v>
+        <v>36821</v>
       </c>
       <c r="F38" s="1">
         <v>43883</v>
@@ -5689,20 +9073,20 @@
       </c>
     </row>
     <row r="39" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A39">
-        <v>38</v>
-      </c>
-      <c r="B39" t="s">
-        <v>30</v>
-      </c>
-      <c r="C39" t="s">
-        <v>31</v>
-      </c>
-      <c r="D39" t="s">
+      <c r="A39" s="5" t="s">
+        <v>104</v>
+      </c>
+      <c r="B39" s="6" t="s">
+        <v>56</v>
+      </c>
+      <c r="C39" s="6" t="s">
+        <v>57</v>
+      </c>
+      <c r="D39" s="6" t="s">
         <v>6</v>
       </c>
-      <c r="E39" s="1">
-        <v>33562</v>
+      <c r="E39" s="7">
+        <v>36161</v>
       </c>
       <c r="F39" s="1">
         <v>43883</v>
@@ -5716,19 +9100,19 @@
     </row>
     <row r="40" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A40">
-        <v>39</v>
+        <v>6</v>
       </c>
       <c r="B40" t="s">
-        <v>69</v>
+        <v>58</v>
       </c>
       <c r="C40" t="s">
-        <v>29</v>
+        <v>12</v>
       </c>
       <c r="D40" t="s">
         <v>6</v>
       </c>
       <c r="E40" s="1">
-        <v>26219</v>
+        <v>36782</v>
       </c>
       <c r="F40" s="1">
         <v>43883</v>
@@ -5742,19 +9126,19 @@
     </row>
     <row r="41" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A41">
-        <v>40</v>
+        <v>55</v>
       </c>
       <c r="B41" t="s">
-        <v>75</v>
+        <v>59</v>
       </c>
       <c r="C41" t="s">
-        <v>76</v>
+        <v>29</v>
       </c>
       <c r="D41" t="s">
         <v>6</v>
       </c>
       <c r="E41" s="1">
-        <v>34058</v>
+        <v>38353</v>
       </c>
       <c r="F41" s="1">
         <v>43883</v>
@@ -5768,10 +9152,10 @@
     </row>
     <row r="42" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A42">
-        <v>41</v>
+        <v>1</v>
       </c>
       <c r="B42" t="s">
-        <v>63</v>
+        <v>60</v>
       </c>
       <c r="C42" t="s">
         <v>12</v>
@@ -5780,7 +9164,7 @@
         <v>6</v>
       </c>
       <c r="E42" s="1">
-        <v>37101</v>
+        <v>33430</v>
       </c>
       <c r="F42" s="1">
         <v>43883</v>
@@ -5794,19 +9178,19 @@
     </row>
     <row r="43" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A43">
-        <v>42</v>
+        <v>54</v>
       </c>
       <c r="B43" t="s">
-        <v>48</v>
+        <v>61</v>
       </c>
       <c r="C43" t="s">
-        <v>14</v>
+        <v>5</v>
       </c>
       <c r="D43" t="s">
         <v>6</v>
       </c>
       <c r="E43" s="1">
-        <v>37115</v>
+        <v>27395</v>
       </c>
       <c r="F43" s="1">
         <v>43883</v>
@@ -5820,19 +9204,19 @@
     </row>
     <row r="44" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A44">
-        <v>43</v>
+        <v>6</v>
       </c>
       <c r="B44" t="s">
-        <v>37</v>
+        <v>62</v>
       </c>
       <c r="C44" t="s">
-        <v>38</v>
+        <v>47</v>
       </c>
       <c r="D44" t="s">
         <v>6</v>
       </c>
       <c r="E44" s="1">
-        <v>25022</v>
+        <v>35324</v>
       </c>
       <c r="F44" s="1">
         <v>43883</v>
@@ -5846,19 +9230,19 @@
     </row>
     <row r="45" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A45">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="B45" t="s">
-        <v>79</v>
+        <v>63</v>
       </c>
       <c r="C45" t="s">
-        <v>5</v>
+        <v>12</v>
       </c>
       <c r="D45" t="s">
         <v>6</v>
       </c>
       <c r="E45" s="1">
-        <v>36853</v>
+        <v>37101</v>
       </c>
       <c r="F45" s="1">
         <v>43883</v>
@@ -5872,19 +9256,19 @@
     </row>
     <row r="46" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A46">
-        <v>45</v>
+        <v>33</v>
       </c>
       <c r="B46" t="s">
-        <v>82</v>
-      </c>
-      <c r="C46" s="6" t="s">
-        <v>83</v>
+        <v>64</v>
+      </c>
+      <c r="C46" t="s">
+        <v>12</v>
       </c>
       <c r="D46" t="s">
-        <v>83</v>
+        <v>6</v>
       </c>
       <c r="E46" s="1">
-        <v>36526</v>
+        <v>37101</v>
       </c>
       <c r="F46" s="1">
         <v>43883</v>
@@ -5898,19 +9282,19 @@
     </row>
     <row r="47" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A47">
-        <v>46</v>
+        <v>30</v>
       </c>
       <c r="B47" t="s">
-        <v>80</v>
+        <v>65</v>
       </c>
       <c r="C47" t="s">
-        <v>41</v>
+        <v>14</v>
       </c>
       <c r="D47" t="s">
         <v>6</v>
       </c>
       <c r="E47" s="1">
-        <v>35065</v>
+        <v>37028</v>
       </c>
       <c r="F47" s="1">
         <v>43883</v>
@@ -5924,19 +9308,19 @@
     </row>
     <row r="48" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A48">
-        <v>47</v>
+        <v>11</v>
       </c>
       <c r="B48" t="s">
-        <v>50</v>
+        <v>66</v>
       </c>
       <c r="C48" t="s">
-        <v>41</v>
+        <v>29</v>
       </c>
       <c r="D48" t="s">
         <v>6</v>
       </c>
       <c r="E48" s="1">
-        <v>30881</v>
+        <v>36219</v>
       </c>
       <c r="F48" s="1">
         <v>43883</v>
@@ -5976,19 +9360,19 @@
     </row>
     <row r="50" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A50">
-        <v>49</v>
+        <v>34</v>
       </c>
       <c r="B50" t="s">
-        <v>17</v>
+        <v>68</v>
       </c>
       <c r="C50" t="s">
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="D50" t="s">
         <v>6</v>
       </c>
       <c r="E50" s="1">
-        <v>30117</v>
+        <v>24724</v>
       </c>
       <c r="F50" s="1">
         <v>43883</v>
@@ -6002,19 +9386,19 @@
     </row>
     <row r="51" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A51">
-        <v>50</v>
+        <v>39</v>
       </c>
       <c r="B51" t="s">
-        <v>9</v>
+        <v>69</v>
       </c>
       <c r="C51" t="s">
-        <v>10</v>
+        <v>29</v>
       </c>
       <c r="D51" t="s">
         <v>6</v>
       </c>
       <c r="E51" s="1">
-        <v>37109</v>
+        <v>26219</v>
       </c>
       <c r="F51" s="1">
         <v>43883</v>
@@ -6028,19 +9412,19 @@
     </row>
     <row r="52" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A52">
-        <v>51</v>
+        <v>60</v>
       </c>
       <c r="B52" t="s">
-        <v>52</v>
+        <v>70</v>
       </c>
       <c r="C52" t="s">
-        <v>10</v>
+        <v>71</v>
       </c>
       <c r="D52" t="s">
         <v>6</v>
       </c>
       <c r="E52" s="1">
-        <v>33420</v>
+        <v>31778</v>
       </c>
       <c r="F52" s="1">
         <v>43883</v>
@@ -6054,19 +9438,19 @@
     </row>
     <row r="53" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A53">
-        <v>52</v>
+        <v>21</v>
       </c>
       <c r="B53" t="s">
-        <v>53</v>
+        <v>72</v>
       </c>
       <c r="C53" t="s">
-        <v>54</v>
+        <v>14</v>
       </c>
       <c r="D53" t="s">
         <v>6</v>
       </c>
       <c r="E53" s="1">
-        <v>34537</v>
+        <v>27427</v>
       </c>
       <c r="F53" s="1">
         <v>43883</v>
@@ -6080,19 +9464,19 @@
     </row>
     <row r="54" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A54">
-        <v>52</v>
+        <v>56</v>
       </c>
       <c r="B54" t="s">
-        <v>77</v>
+        <v>73</v>
       </c>
       <c r="C54" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="D54" t="s">
         <v>6</v>
       </c>
       <c r="E54" s="1">
-        <v>22885</v>
+        <v>38141</v>
       </c>
       <c r="F54" s="1">
         <v>43883</v>
@@ -6106,19 +9490,19 @@
     </row>
     <row r="55" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A55">
-        <v>54</v>
+        <v>45</v>
       </c>
       <c r="B55" t="s">
-        <v>61</v>
-      </c>
-      <c r="C55" t="s">
-        <v>5</v>
+        <v>82</v>
+      </c>
+      <c r="C55" s="6" t="s">
+        <v>83</v>
       </c>
       <c r="D55" t="s">
-        <v>6</v>
+        <v>83</v>
       </c>
       <c r="E55" s="1">
-        <v>27395</v>
+        <v>36526</v>
       </c>
       <c r="F55" s="1">
         <v>43883</v>
@@ -6132,19 +9516,19 @@
     </row>
     <row r="56" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A56">
-        <v>55</v>
+        <v>58</v>
       </c>
       <c r="B56" t="s">
-        <v>59</v>
+        <v>74</v>
       </c>
       <c r="C56" t="s">
-        <v>29</v>
+        <v>57</v>
       </c>
       <c r="D56" t="s">
         <v>6</v>
       </c>
       <c r="E56" s="1">
-        <v>38353</v>
+        <v>33056</v>
       </c>
       <c r="F56" s="1">
         <v>43883</v>
@@ -6158,19 +9542,19 @@
     </row>
     <row r="57" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A57">
-        <v>56</v>
+        <v>40</v>
       </c>
       <c r="B57" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="C57" t="s">
-        <v>14</v>
+        <v>76</v>
       </c>
       <c r="D57" t="s">
         <v>6</v>
       </c>
       <c r="E57" s="1">
-        <v>38141</v>
+        <v>34058</v>
       </c>
       <c r="F57" s="1">
         <v>43883</v>
@@ -6184,19 +9568,19 @@
     </row>
     <row r="58" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A58">
-        <v>57</v>
+        <v>52</v>
       </c>
       <c r="B58" t="s">
-        <v>40</v>
+        <v>77</v>
       </c>
       <c r="C58" t="s">
-        <v>41</v>
+        <v>12</v>
       </c>
       <c r="D58" t="s">
         <v>6</v>
       </c>
       <c r="E58" s="1">
-        <v>35065</v>
+        <v>22885</v>
       </c>
       <c r="F58" s="1">
         <v>43883</v>
@@ -6210,19 +9594,19 @@
     </row>
     <row r="59" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A59">
-        <v>58</v>
+        <v>27</v>
       </c>
       <c r="B59" t="s">
-        <v>74</v>
+        <v>78</v>
       </c>
       <c r="C59" t="s">
-        <v>57</v>
+        <v>29</v>
       </c>
       <c r="D59" t="s">
         <v>6</v>
       </c>
       <c r="E59" s="1">
-        <v>33056</v>
+        <v>37520</v>
       </c>
       <c r="F59" s="1">
         <v>43883</v>
@@ -6236,19 +9620,19 @@
     </row>
     <row r="60" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A60">
-        <v>59</v>
+        <v>44</v>
       </c>
       <c r="B60" t="s">
-        <v>51</v>
+        <v>79</v>
       </c>
       <c r="C60" t="s">
-        <v>18</v>
+        <v>5</v>
       </c>
       <c r="D60" t="s">
         <v>6</v>
       </c>
       <c r="E60" s="1">
-        <v>35796</v>
+        <v>36853</v>
       </c>
       <c r="F60" s="1">
         <v>43883</v>
@@ -6262,19 +9646,19 @@
     </row>
     <row r="61" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A61">
-        <v>60</v>
+        <v>46</v>
       </c>
       <c r="B61" t="s">
-        <v>70</v>
+        <v>80</v>
       </c>
       <c r="C61" t="s">
-        <v>71</v>
+        <v>41</v>
       </c>
       <c r="D61" t="s">
         <v>6</v>
       </c>
       <c r="E61" s="1">
-        <v>31778</v>
+        <v>35065</v>
       </c>
       <c r="F61" s="1">
         <v>43883</v>
@@ -6287,20 +9671,20 @@
       </c>
     </row>
     <row r="62" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A62" s="5" t="s">
-        <v>104</v>
-      </c>
-      <c r="B62" s="6" t="s">
-        <v>56</v>
-      </c>
-      <c r="C62" s="6" t="s">
-        <v>57</v>
-      </c>
-      <c r="D62" s="6" t="s">
+      <c r="A62">
+        <v>22</v>
+      </c>
+      <c r="B62" t="s">
+        <v>81</v>
+      </c>
+      <c r="C62" t="s">
+        <v>10</v>
+      </c>
+      <c r="D62" t="s">
         <v>6</v>
       </c>
-      <c r="E62" s="7">
-        <v>36161</v>
+      <c r="E62" s="1">
+        <v>37393</v>
       </c>
       <c r="F62" s="1">
         <v>43883</v>
@@ -6315,7 +9699,7 @@
   </sheetData>
   <autoFilter ref="A1:H1" xr:uid="{6BE8EC13-5CBE-4DC4-B9E2-75073FDF3DC9}">
     <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:H62">
-      <sortCondition ref="A1"/>
+      <sortCondition ref="B1"/>
     </sortState>
   </autoFilter>
   <phoneticPr fontId="2" type="noConversion"/>
@@ -6324,11 +9708,11 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F6FC78F5-5CF3-4822-9F05-040CD542D014}">
   <dimension ref="A1:K394"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="B393" sqref="B393"/>
     </sheetView>
   </sheetViews>
@@ -20110,7 +23494,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{24776AA4-D2C9-4979-A33A-19FCB0421740}">
   <dimension ref="A1:K98"/>
   <sheetViews>
